--- a/src/main/resources/sheets/codearena.xlsx
+++ b/src/main/resources/sheets/codearena.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
   <si>
     <t>Id</t>
   </si>
@@ -41,79 +41,244 @@
     <t>Hackerrank Id</t>
   </si>
   <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City/State</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
     <t>ImageDriveLink</t>
   </si>
   <si>
     <t>TimeStamp</t>
   </si>
   <si>
-    <t>63272724</t>
-  </si>
-  <si>
-    <t>Kunal Kumar</t>
-  </si>
-  <si>
-    <t>Indian Institute of Technology, Bombay</t>
-  </si>
-  <si>
-    <t>1IITBCSE123</t>
-  </si>
-  <si>
-    <t>3rd Year</t>
+    <t>36627266</t>
+  </si>
+  <si>
+    <t>Partha Sarathi Bhunia</t>
+  </si>
+  <si>
+    <t>College of Engineering and Management,Kolaghat</t>
+  </si>
+  <si>
+    <t>181070110047</t>
+  </si>
+  <si>
+    <t>4th Year</t>
   </si>
   <si>
     <t>Computer Science and Engineering</t>
   </si>
   <si>
-    <t>kunal@gmail.com</t>
-  </si>
-  <si>
-    <t>917667503352</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/Dynamic15CODER</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1WDCPMruoUcjrVvH3yB7QnySbtiLGBW03/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Thu Dec 02 15:20:23 IST 2021</t>
-  </si>
-  <si>
-    <t>88431042</t>
-  </si>
-  <si>
-    <t>AkashRanjan Das</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>1si18cs008</t>
-  </si>
-  <si>
-    <t>4th Year</t>
-  </si>
-  <si>
-    <t>akash.ranjan1999@gmail.com</t>
-  </si>
-  <si>
-    <t>7667503352</t>
-  </si>
-  <si>
-    <t>Thu Dec 02 07:29:01 UTC 2021</t>
-  </si>
-  <si>
-    <t>39705517</t>
-  </si>
-  <si>
-    <t>Rajendra Singh</t>
-  </si>
-  <si>
-    <t>1si18cs010</t>
-  </si>
-  <si>
-    <t>Thu Dec 02 09:15:20 UTC 2021</t>
+    <t>parthabhunia2001@gmail.com</t>
+  </si>
+  <si>
+    <t>8670062213</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/parthabhunia2001</t>
+  </si>
+  <si>
+    <t>Vill. - Joyrambati, P.O. - Kelomal, P.S.- Tamluk, Dist. - Purba Medinipur</t>
+  </si>
+  <si>
+    <t>Tamluk, West Bengal</t>
+  </si>
+  <si>
+    <t>721627</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1be1GNWjGKQ84Eq7LPJZAbDWYW2R3BCQW/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Sat Dec 04 18:26:29 UTC 2021</t>
+  </si>
+  <si>
+    <t>42043320</t>
+  </si>
+  <si>
+    <t>K Abhishek</t>
+  </si>
+  <si>
+    <t>Siddaganga institute of technology</t>
+  </si>
+  <si>
+    <t>1SI18CS042</t>
+  </si>
+  <si>
+    <t>Computer science engineering</t>
+  </si>
+  <si>
+    <t>kalleabhishek@gmail.com</t>
+  </si>
+  <si>
+    <t>6305496416</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/K_Abhishek</t>
+  </si>
+  <si>
+    <t>Hindupur</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>515201</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18HTIPI4dS8W5I3YEHGTcrQ4i2AbiGDip/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Sat Dec 04 09:31:40 UTC 2021</t>
+  </si>
+  <si>
+    <t>55163892</t>
+  </si>
+  <si>
+    <t>Ashutosh Divyanshu</t>
+  </si>
+  <si>
+    <t>1SI20CS020</t>
+  </si>
+  <si>
+    <t>2nd Year</t>
+  </si>
+  <si>
+    <t>ashutosh.divyanshu@gmail.com</t>
+  </si>
+  <si>
+    <t>8789306618</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/i_am_fusion</t>
+  </si>
+  <si>
+    <t>LBS BLOCK , SIT , BH ROAD , TUMAKURU</t>
+  </si>
+  <si>
+    <t>TUMAKURU</t>
+  </si>
+  <si>
+    <t>572102</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1F8FZvrWpZLRP4msQKYdbHlcggLwMeSl7/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Sun Dec 05 07:17:10 UTC 2021</t>
+  </si>
+  <si>
+    <t>12715603</t>
+  </si>
+  <si>
+    <t>Brijesh Krishna</t>
+  </si>
+  <si>
+    <t>Siddaganga Institute Of Technology</t>
+  </si>
+  <si>
+    <t>1SI20EE009</t>
+  </si>
+  <si>
+    <t>brijeshkrishnaga@gmail.ocm</t>
+  </si>
+  <si>
+    <t>9148751645</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/brijeshkrishna</t>
+  </si>
+  <si>
+    <t>tumakuru</t>
+  </si>
+  <si>
+    <t>572103</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1i6cIRGMiu-LT4HGKDXUZksfuj0OYbBz8/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Sun Dec 05 05:48:40 UTC 2021</t>
+  </si>
+  <si>
+    <t>78665168</t>
+  </si>
+  <si>
+    <t>Renushree G</t>
+  </si>
+  <si>
+    <t>Siddaganga Institute of Technology</t>
+  </si>
+  <si>
+    <t>1SI20EE029</t>
+  </si>
+  <si>
+    <t>Electrical and Electronics Engineering</t>
+  </si>
+  <si>
+    <t>renushree2002@gmail.com</t>
+  </si>
+  <si>
+    <t>8147104173</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/renushree2002</t>
+  </si>
+  <si>
+    <t>Lakshmi Nivasa, Gangothri Nagara, SIT Extension.</t>
+  </si>
+  <si>
+    <t>Tumkur</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/s!Ak2Pxmz6w03GlVLZCjSmxAATpCGG?e=EGWV89</t>
+  </si>
+  <si>
+    <t>Sun Dec 05 03:37:43 UTC 2021</t>
+  </si>
+  <si>
+    <t>19803744</t>
+  </si>
+  <si>
+    <t>Ayushman Sinha</t>
+  </si>
+  <si>
+    <t>Siddaganga Institute of Technology, TUMKUR</t>
+  </si>
+  <si>
+    <t>1SI20IS008</t>
+  </si>
+  <si>
+    <t>Information Science and Engineering</t>
+  </si>
+  <si>
+    <t>ayushman.sinhaa@gmail.com</t>
+  </si>
+  <si>
+    <t>8603831633</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/ayushman_sinhaa</t>
+  </si>
+  <si>
+    <t>411,Cosmos,Vijaya Garden,Baridih</t>
+  </si>
+  <si>
+    <t>Jamshedpur</t>
+  </si>
+  <si>
+    <t>831017</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NWM9YtuSjpincWGMdJlWn_Ku8S1JQP9_/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Sat Dec 04 18:00:20 UTC 2021</t>
   </si>
 </sst>
 </file>
@@ -158,7 +323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -198,110 +363,278 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/sheets/codearena.xlsx
+++ b/src/main/resources/sheets/codearena.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>Id</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Pincode</t>
   </si>
   <si>
-    <t>ImageDriveLink</t>
-  </si>
-  <si>
     <t>TimeStamp</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>721627</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1be1GNWjGKQ84Eq7LPJZAbDWYW2R3BCQW/view?usp=drivesdk</t>
-  </si>
-  <si>
     <t>Sat Dec 04 18:26:29 UTC 2021</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
     <t>515201</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/18HTIPI4dS8W5I3YEHGTcrQ4i2AbiGDip/view?usp=drivesdk</t>
-  </si>
-  <si>
     <t>Sat Dec 04 09:31:40 UTC 2021</t>
   </si>
   <si>
@@ -167,9 +158,6 @@
     <t>572102</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1F8FZvrWpZLRP4msQKYdbHlcggLwMeSl7/view?usp=drivesdk</t>
-  </si>
-  <si>
     <t>Sun Dec 05 07:17:10 UTC 2021</t>
   </si>
   <si>
@@ -200,9 +188,6 @@
     <t>572103</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1i6cIRGMiu-LT4HGKDXUZksfuj0OYbBz8/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Sun Dec 05 05:48:40 UTC 2021</t>
   </si>
   <si>
@@ -236,9 +221,6 @@
     <t>Tumkur</t>
   </si>
   <si>
-    <t>https://1drv.ms/b/s!Ak2Pxmz6w03GlVLZCjSmxAATpCGG?e=EGWV89</t>
-  </si>
-  <si>
     <t>Sun Dec 05 03:37:43 UTC 2021</t>
   </si>
   <si>
@@ -273,9 +255,6 @@
   </si>
   <si>
     <t>831017</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1NWM9YtuSjpincWGMdJlWn_Ku8S1JQP9_/view?usp=sharing</t>
   </si>
   <si>
     <t>Sat Dec 04 18:00:20 UTC 2021</t>
@@ -323,7 +302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -369,272 +348,251 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>45</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>46</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>47</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>48</v>
-      </c>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H5" t="s">
         <v>54</v>
       </c>
-      <c r="C5" t="s">
+      <c r="I5" t="s">
         <v>55</v>
       </c>
-      <c r="D5" t="s">
+      <c r="J5" t="s">
         <v>56</v>
       </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
         <v>57</v>
       </c>
-      <c r="H5" t="s">
+      <c r="M5" t="s">
         <v>58</v>
-      </c>
-      <c r="I5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
         <v>64</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
         <v>65</v>
       </c>
-      <c r="C6" t="s">
+      <c r="I6" t="s">
         <v>66</v>
       </c>
-      <c r="D6" t="s">
+      <c r="J6" t="s">
         <v>67</v>
       </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>68</v>
       </c>
-      <c r="G6" t="s">
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" t="s">
         <v>69</v>
-      </c>
-      <c r="H6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" t="s">
-        <v>73</v>
-      </c>
-      <c r="L6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" t="s">
+      <c r="I7" t="s">
         <v>77</v>
       </c>
-      <c r="C7" t="s">
+      <c r="J7" t="s">
         <v>78</v>
       </c>
-      <c r="D7" t="s">
+      <c r="K7" t="s">
         <v>79</v>
       </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="L7" t="s">
         <v>80</v>
       </c>
-      <c r="G7" t="s">
+      <c r="M7" t="s">
         <v>81</v>
-      </c>
-      <c r="H7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" t="s">
-        <v>87</v>
-      </c>
-      <c r="N7" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/sheets/codearena.xlsx
+++ b/src/main/resources/sheets/codearena.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="602">
   <si>
     <t>Id</t>
   </si>
@@ -53,6 +53,156 @@
     <t>TimeStamp</t>
   </si>
   <si>
+    <t>99588965</t>
+  </si>
+  <si>
+    <t>Vaishnavi Bhustali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R V College of Engineering </t>
+  </si>
+  <si>
+    <t>1RV20CS183</t>
+  </si>
+  <si>
+    <t>2nd Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Science and Engineering </t>
+  </si>
+  <si>
+    <t>vaishnavikb.cs20@rvce.edu.in</t>
+  </si>
+  <si>
+    <t>8073462708</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com@vaishnavikbhust1</t>
+  </si>
+  <si>
+    <t>RV College of Engineering, DJ hostel, RV College of Engineering</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>560059</t>
+  </si>
+  <si>
+    <t>Sun Dec 12 10:54:54 UTC 2021</t>
+  </si>
+  <si>
+    <t>42043320</t>
+  </si>
+  <si>
+    <t>K Abhishek</t>
+  </si>
+  <si>
+    <t>Siddaganga institute of technology</t>
+  </si>
+  <si>
+    <t>1SI18CS042</t>
+  </si>
+  <si>
+    <t>4th Year</t>
+  </si>
+  <si>
+    <t>Computer science engineering</t>
+  </si>
+  <si>
+    <t>kalleabhishek@gmail.com</t>
+  </si>
+  <si>
+    <t>6305496416</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/K_Abhishek</t>
+  </si>
+  <si>
+    <t>Hindupur</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>515201</t>
+  </si>
+  <si>
+    <t>Sat Dec 04 09:31:40 UTC 2021</t>
+  </si>
+  <si>
+    <t>79748790</t>
+  </si>
+  <si>
+    <t>Mohammed Sayeed</t>
+  </si>
+  <si>
+    <t>1SI18CS057</t>
+  </si>
+  <si>
+    <t>Computer science and engineering</t>
+  </si>
+  <si>
+    <t>sayeedofficial6220@gmail.com</t>
+  </si>
+  <si>
+    <t>9945215769</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/sayeedofficial?hr_r=1</t>
+  </si>
+  <si>
+    <t>7th Cross PH Colony</t>
+  </si>
+  <si>
+    <t>Tumkur</t>
+  </si>
+  <si>
+    <t>572101</t>
+  </si>
+  <si>
+    <t>Sun Dec 12 12:41:43 UTC 2021</t>
+  </si>
+  <si>
+    <t>7488744</t>
+  </si>
+  <si>
+    <t>Anudeep Aravapalli</t>
+  </si>
+  <si>
+    <t>Siddaganga Institute of technology</t>
+  </si>
+  <si>
+    <t>1SI19CS017</t>
+  </si>
+  <si>
+    <t>3rd Year</t>
+  </si>
+  <si>
+    <t>computer science and engineering</t>
+  </si>
+  <si>
+    <t>anudeep.hanuman@gmail.com</t>
+  </si>
+  <si>
+    <t>6363764172</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/Anudeep610</t>
+  </si>
+  <si>
+    <t>Room no 245,mg block, siddaganga Institute of technology</t>
+  </si>
+  <si>
+    <t>Tumkur, karnataka</t>
+  </si>
+  <si>
+    <t>572102</t>
+  </si>
+  <si>
+    <t>Thu Dec 09 13:57:27 UTC 2021</t>
+  </si>
+  <si>
     <t>22494864</t>
   </si>
   <si>
@@ -65,9 +215,6 @@
     <t>1SI19CS056</t>
   </si>
   <si>
-    <t>3rd Year</t>
-  </si>
-  <si>
     <t>Computer science</t>
   </si>
   <si>
@@ -80,9 +227,6 @@
     <t>https://github.com/Jyothishree20</t>
   </si>
   <si>
-    <t>Tumkur</t>
-  </si>
-  <si>
     <t>572103</t>
   </si>
   <si>
@@ -125,15 +269,39 @@
     <t>Wed Dec 08 05:15:51 UTC 2021</t>
   </si>
   <si>
+    <t>23990517</t>
+  </si>
+  <si>
+    <t>Monika K S</t>
+  </si>
+  <si>
+    <t>Siddaganga Institute of Technology</t>
+  </si>
+  <si>
+    <t>1SI19CS079</t>
+  </si>
+  <si>
+    <t>monikashanthakumar@gmail.com</t>
+  </si>
+  <si>
+    <t>6362682800</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/monika_k_s</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Sun Dec 12 17:08:15 UTC 2021</t>
+  </si>
+  <si>
     <t>85990580</t>
   </si>
   <si>
     <t xml:space="preserve">Muskan Agarwal </t>
   </si>
   <si>
-    <t>Siddaganga Institute of Technology</t>
-  </si>
-  <si>
     <t>1SI19CS083</t>
   </si>
   <si>
@@ -158,6 +326,99 @@
     <t>Sat Dec 11 03:42:28 UTC 2021</t>
   </si>
   <si>
+    <t>55479023</t>
+  </si>
+  <si>
+    <t>Sharath  Kumar v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siddaganga institute of technology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1SI19CS104 </t>
+  </si>
+  <si>
+    <t>Cse</t>
+  </si>
+  <si>
+    <t>sharath25apj@gmail.com</t>
+  </si>
+  <si>
+    <t>8431128701</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/sharath25apj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tumakuru </t>
+  </si>
+  <si>
+    <t>Sun Dec 12 12:44:04 UTC 2021</t>
+  </si>
+  <si>
+    <t>26101275</t>
+  </si>
+  <si>
+    <t>SHASHWATH .</t>
+  </si>
+  <si>
+    <t>SIDDAGANA INSTITUTE OF TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>1SI19CS106</t>
+  </si>
+  <si>
+    <t>COMPUTER SCIENCE AND ENGINEERING</t>
+  </si>
+  <si>
+    <t>1si19cs106@sit.ac.in</t>
+  </si>
+  <si>
+    <t>8792332066</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/shashwathpoddar</t>
+  </si>
+  <si>
+    <t>Sun Dec 12 11:49:38 UTC 2021</t>
+  </si>
+  <si>
+    <t>61818955</t>
+  </si>
+  <si>
+    <t>Yashwanth Kumar  M V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSS Science and Technology University,MYSORE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01JST20CS179 </t>
+  </si>
+  <si>
+    <t>CSE</t>
+  </si>
+  <si>
+    <t>mvyashwanthkumar@gmail.com</t>
+  </si>
+  <si>
+    <t>8904333426</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/mvyashwanthkumar</t>
+  </si>
+  <si>
+    <t>SJCE BOYS HOSTEL, JSS SCIENCE AND TECHNOLOGY UNIVERSITY</t>
+  </si>
+  <si>
+    <t>Mysore</t>
+  </si>
+  <si>
+    <t>570006</t>
+  </si>
+  <si>
+    <t>Sat Dec 11 11:35:12 UTC 2021</t>
+  </si>
+  <si>
     <t>11818880</t>
   </si>
   <si>
@@ -188,15 +449,66 @@
     <t>Tue Dec 07 12:29:07 UTC 2021</t>
   </si>
   <si>
+    <t>94244043</t>
+  </si>
+  <si>
+    <t>Vishwanath Kumar Singh</t>
+  </si>
+  <si>
+    <t>1SI19EC120</t>
+  </si>
+  <si>
+    <t>Electronics and Communication Engineering</t>
+  </si>
+  <si>
+    <t>1si19ec120@sit.ac.in</t>
+  </si>
+  <si>
+    <t>9162865591</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/vishwanathsingh1</t>
+  </si>
+  <si>
+    <t>Mahatma Gandhi Block, Siddaganga Institute of Technology, B.H. Road</t>
+  </si>
+  <si>
+    <t>Sun Dec 12 16:13:37 UTC 2021</t>
+  </si>
+  <si>
+    <t>75605197</t>
+  </si>
+  <si>
+    <t>Balaji  E S</t>
+  </si>
+  <si>
+    <t>1SI19IS013</t>
+  </si>
+  <si>
+    <t>ISE</t>
+  </si>
+  <si>
+    <t>balajibali3550@gmail.com</t>
+  </si>
+  <si>
+    <t>6364369801</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/balaji_es</t>
+  </si>
+  <si>
+    <t>Avopa boys hostel, Tumkur</t>
+  </si>
+  <si>
+    <t>Sun Dec 12 11:59:23 UTC 2021</t>
+  </si>
+  <si>
     <t>66092481</t>
   </si>
   <si>
     <t>Karthik D V</t>
   </si>
   <si>
-    <t>Siddaganga institute of technology</t>
-  </si>
-  <si>
     <t>1SI19IS027</t>
   </si>
   <si>
@@ -218,6 +530,36 @@
     <t>Sat Dec 11 14:08:01 UTC 2021</t>
   </si>
   <si>
+    <t>18619776</t>
+  </si>
+  <si>
+    <t>Manan Raj</t>
+  </si>
+  <si>
+    <t>1SI19IS033</t>
+  </si>
+  <si>
+    <t>Information Science and Engineering</t>
+  </si>
+  <si>
+    <t>mrmananraj34@gmail.com</t>
+  </si>
+  <si>
+    <t>7764001252</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/mananraj1</t>
+  </si>
+  <si>
+    <t>In front of Skanda Associates, 15th cross, SIT Extension, 15th cross,SIT backgate, tumkur</t>
+  </si>
+  <si>
+    <t>Tumkur/Karnataka</t>
+  </si>
+  <si>
+    <t>Mon Dec 13 04:28:23 UTC 2021</t>
+  </si>
+  <si>
     <t>90372405</t>
   </si>
   <si>
@@ -227,9 +569,6 @@
     <t>1SI19IS036</t>
   </si>
   <si>
-    <t>Information Science and Engineering</t>
-  </si>
-  <si>
     <t>itsmohitmk99@gmail.com</t>
   </si>
   <si>
@@ -242,12 +581,6 @@
     <t>Skandha Associates , 15th Cross Nandish Layout , SIT Back Gate</t>
   </si>
   <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
-    <t>572102</t>
-  </si>
-  <si>
     <t>Sat Dec 11 19:02:06 UTC 2021</t>
   </si>
   <si>
@@ -257,9 +590,6 @@
     <t>Dhruv D jain</t>
   </si>
   <si>
-    <t xml:space="preserve">Siddaganga institute of technology </t>
-  </si>
-  <si>
     <t>1SI19et009</t>
   </si>
   <si>
@@ -278,9 +608,6 @@
     <t>Namo, Geergae Villa, aanethotha road, sharadadevinagar</t>
   </si>
   <si>
-    <t>Tumkur, karnataka</t>
-  </si>
-  <si>
     <t>Wed Dec 08 10:58:40 UTC 2021</t>
   </si>
   <si>
@@ -293,9 +620,6 @@
     <t>1SI20AD001</t>
   </si>
   <si>
-    <t>2nd Year</t>
-  </si>
-  <si>
     <t>Artificial intelligence and data science</t>
   </si>
   <si>
@@ -311,9 +635,6 @@
     <t>Musthan building near SLV provision store Thotadaguddadahalli Bangalore 73</t>
   </si>
   <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
     <t>560073</t>
   </si>
   <si>
@@ -374,46 +695,40 @@
     <t>Sagar pg</t>
   </si>
   <si>
-    <t>572101</t>
-  </si>
-  <si>
     <t>Sat Dec 11 11:35:11 UTC 2021</t>
   </si>
   <si>
-    <t>61818955</t>
-  </si>
-  <si>
-    <t>Yashwanth Kumar  M V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JSS Science and Technology University,MYSORE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">01JST20CS179 </t>
-  </si>
-  <si>
-    <t>CSE</t>
-  </si>
-  <si>
-    <t>mvyashwanthkumar@gmail.com</t>
-  </si>
-  <si>
-    <t>8904333426</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/mvyashwanthkumar</t>
-  </si>
-  <si>
-    <t>SJCE BOYS HOSTEL, JSS SCIENCE AND TECHNOLOGY UNIVERSITY</t>
-  </si>
-  <si>
-    <t>Mysore</t>
-  </si>
-  <si>
-    <t>570006</t>
-  </si>
-  <si>
-    <t>Sat Dec 11 11:35:12 UTC 2021</t>
+    <t>84971134</t>
+  </si>
+  <si>
+    <t>Reddy Soha  Tabassum</t>
+  </si>
+  <si>
+    <t>Ashoka women's engineering College</t>
+  </si>
+  <si>
+    <t>07680076600</t>
+  </si>
+  <si>
+    <t>tabassumtarunnam@gmail.com</t>
+  </si>
+  <si>
+    <t>9390947376</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/auth/confirm_account?confirmation_token=xLSRTxM-obmvYJo83RvT</t>
+  </si>
+  <si>
+    <t>1-659,2nd road , Anantapur</t>
+  </si>
+  <si>
+    <t>Anantapur</t>
+  </si>
+  <si>
+    <t>515001</t>
+  </si>
+  <si>
+    <t>Sun Dec 12 17:35:59 UTC 2021</t>
   </si>
   <si>
     <t>25711033</t>
@@ -476,9 +791,6 @@
     <t>1SI20CS031</t>
   </si>
   <si>
-    <t>COMPUTER SCIENCE AND ENGINEERING</t>
-  </si>
-  <si>
     <t>damank2402@gmail.com</t>
   </si>
   <si>
@@ -614,9 +926,6 @@
     <t>1SI20CS049</t>
   </si>
   <si>
-    <t>Computer science engineering</t>
-  </si>
-  <si>
     <t>keshav002021@gmail.com</t>
   </si>
   <si>
@@ -707,9 +1016,6 @@
     <t>181070110047</t>
   </si>
   <si>
-    <t>4th Year</t>
-  </si>
-  <si>
     <t>parthabhunia2001@gmail.com</t>
   </si>
   <si>
@@ -923,9 +1229,6 @@
     <t>1SI20IS056</t>
   </si>
   <si>
-    <t>ISE</t>
-  </si>
-  <si>
     <t>subramanyajoshi002@gmail.com</t>
   </si>
   <si>
@@ -1151,6 +1454,255 @@
     <t>Tue Dec 07 13:41:35 UTC 2021</t>
   </si>
   <si>
+    <t>37729518</t>
+  </si>
+  <si>
+    <t>Mohammed Afnan Ahmed</t>
+  </si>
+  <si>
+    <t>Vidyavardhaka College of Engineering</t>
+  </si>
+  <si>
+    <t>4VV19CS093</t>
+  </si>
+  <si>
+    <t>afnan21702@gmail.com</t>
+  </si>
+  <si>
+    <t>7760433057</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/_afuu</t>
+  </si>
+  <si>
+    <t>Door no. 6, 6th Cross, Shivaji road, NR mohalla</t>
+  </si>
+  <si>
+    <t>Karnataka, Mysore</t>
+  </si>
+  <si>
+    <t>570007</t>
+  </si>
+  <si>
+    <t>Sun Dec 12 15:47:06 UTC 2021</t>
+  </si>
+  <si>
+    <t>21569448</t>
+  </si>
+  <si>
+    <t>A  Adarsh</t>
+  </si>
+  <si>
+    <t>Vidyavarthaka College of Engineering</t>
+  </si>
+  <si>
+    <t>4VV20CS001</t>
+  </si>
+  <si>
+    <t>adarshgowda463@gmail.com</t>
+  </si>
+  <si>
+    <t>8660094048</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/AdarshGowda</t>
+  </si>
+  <si>
+    <t>2981, 6th Cross, F Block, Kanakadasanagar, Mysore</t>
+  </si>
+  <si>
+    <t>570022</t>
+  </si>
+  <si>
+    <t>Sun Dec 12 15:36:16 UTC 2021</t>
+  </si>
+  <si>
+    <t>68961853</t>
+  </si>
+  <si>
+    <t>Aniruddha Bagal</t>
+  </si>
+  <si>
+    <t>4VV20CS010</t>
+  </si>
+  <si>
+    <t>bagalaniruddha@gmail.com</t>
+  </si>
+  <si>
+    <t>8762147115</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/bagalaniruddha</t>
+  </si>
+  <si>
+    <t>F-02, Temple View Apartment, industrial suburb, 3rd stage, vishweshwar nagar, Mysuru</t>
+  </si>
+  <si>
+    <t>Mysuru</t>
+  </si>
+  <si>
+    <t>570008</t>
+  </si>
+  <si>
+    <t>Mon Dec 13 01:36:17 UTC 2021</t>
+  </si>
+  <si>
+    <t>55263027</t>
+  </si>
+  <si>
+    <t>PREETHI N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vidya vardhaka college of engineering </t>
+  </si>
+  <si>
+    <t>4VV20CS104</t>
+  </si>
+  <si>
+    <t>Preethinarayan2003@gmail.com</t>
+  </si>
+  <si>
+    <t>7619627746</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/PREETHI_N</t>
+  </si>
+  <si>
+    <t>#845 garadi Street, p hosahally, Sri rangapattana taluk, Mandya district</t>
+  </si>
+  <si>
+    <t>Sri rangapattana</t>
+  </si>
+  <si>
+    <t>571606</t>
+  </si>
+  <si>
+    <t>Sun Dec 12 15:46:06 UTC 2021</t>
+  </si>
+  <si>
+    <t>61351107</t>
+  </si>
+  <si>
+    <t>Srusti Gourani</t>
+  </si>
+  <si>
+    <t>4VV20CS150</t>
+  </si>
+  <si>
+    <t>srustigourani617@gmail.com</t>
+  </si>
+  <si>
+    <t>9606709284</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/srustigourani617?hr_r=1</t>
+  </si>
+  <si>
+    <t>#933,10thcross,Hebbal,Mysuru-17</t>
+  </si>
+  <si>
+    <t>570017</t>
+  </si>
+  <si>
+    <t>Sun Dec 12 16:12:28 UTC 2021</t>
+  </si>
+  <si>
+    <t>99714972</t>
+  </si>
+  <si>
+    <t>Yashas  M N</t>
+  </si>
+  <si>
+    <t>Vidyavardhaka Engineering college</t>
+  </si>
+  <si>
+    <t>4vv19cs184</t>
+  </si>
+  <si>
+    <t>yashasvic14@gmail.com</t>
+  </si>
+  <si>
+    <t>8197393455</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/_RAGE</t>
+  </si>
+  <si>
+    <t>570004</t>
+  </si>
+  <si>
+    <t>Mon Dec 13 00:41:20 UTC 2021</t>
+  </si>
+  <si>
+    <t>10517301</t>
+  </si>
+  <si>
+    <t>Srivatsa Mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vidyavardhaka </t>
+  </si>
+  <si>
+    <t>4vv20cs148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer science </t>
+  </si>
+  <si>
+    <t>srivatsamg@gmail.com</t>
+  </si>
+  <si>
+    <t>7760859628</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/srivatsamg</t>
+  </si>
+  <si>
+    <t>#325 arkavarhi road roopa nagara</t>
+  </si>
+  <si>
+    <t>5700026</t>
+  </si>
+  <si>
+    <t>Sun Dec 12 15:35:27 UTC 2021</t>
+  </si>
+  <si>
+    <t>21688051</t>
+  </si>
+  <si>
+    <t>Gourav Banerjee</t>
+  </si>
+  <si>
+    <t>Cambridge Institute of Technology</t>
+  </si>
+  <si>
+    <t>1CD19CS055</t>
+  </si>
+  <si>
+    <t>Computer Science  Engineering</t>
+  </si>
+  <si>
+    <t>gourav.19cs055@cambridge.edu.in</t>
+  </si>
+  <si>
+    <t>9798504865</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/banerjeec713</t>
+  </si>
+  <si>
+    <t>K-1602, Salarpuria Sattva East Crest, Budigere Cross, Bengaluru 49</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>560049</t>
+  </si>
+  <si>
+    <t>Mon Dec 13 05:04:55 UTC 2021</t>
+  </si>
+  <si>
     <t>76760320</t>
   </si>
   <si>
@@ -1205,12 +1757,6 @@
     <t>R V college of engineering</t>
   </si>
   <si>
-    <t>Bengaluru</t>
-  </si>
-  <si>
-    <t>560059</t>
-  </si>
-  <si>
     <t>Sun Dec 12 07:16:04 UTC 2021</t>
   </si>
   <si>
@@ -1272,66 +1818,6 @@
   </si>
   <si>
     <t>Sat Dec 11 19:35:42 UTC 2021</t>
-  </si>
-  <si>
-    <t>42043320</t>
-  </si>
-  <si>
-    <t>K Abhishek</t>
-  </si>
-  <si>
-    <t>1SI18CS042</t>
-  </si>
-  <si>
-    <t>kalleabhishek@gmail.com</t>
-  </si>
-  <si>
-    <t>6305496416</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/K_Abhishek</t>
-  </si>
-  <si>
-    <t>Hindupur</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>515201</t>
-  </si>
-  <si>
-    <t>Sat Dec 04 09:31:40 UTC 2021</t>
-  </si>
-  <si>
-    <t>7488744</t>
-  </si>
-  <si>
-    <t>Anudeep Aravapalli</t>
-  </si>
-  <si>
-    <t>Siddaganga Institute of technology</t>
-  </si>
-  <si>
-    <t>1SI19CS017</t>
-  </si>
-  <si>
-    <t>computer science and engineering</t>
-  </si>
-  <si>
-    <t>anudeep.hanuman@gmail.com</t>
-  </si>
-  <si>
-    <t>6363764172</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/Anudeep610</t>
-  </si>
-  <si>
-    <t>Room no 245,mg block, siddaganga Institute of technology</t>
-  </si>
-  <si>
-    <t>Thu Dec 09 13:57:27 UTC 2021</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1862,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1455,853 +1941,853 @@
         <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="M10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="L11" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="M11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="M13" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H14" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="L14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M14" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="L15" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="M15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="L16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="M17" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="D18" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H18" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I18" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J18" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="M18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="G19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H19" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="L19" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="M19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H20" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="L20" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="D21" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G21" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H21" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I21" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J21" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K21" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="M21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C22" t="s">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K22" t="s">
-        <v>225</v>
+        <v>92</v>
       </c>
       <c r="L22" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E23" t="s">
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>232</v>
@@ -2333,816 +2819,1513 @@
         <v>240</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
         <v>241</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
         <v>242</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>243</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>244</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" t="s">
         <v>245</v>
-      </c>
-      <c r="J24" t="s">
-        <v>246</v>
-      </c>
-      <c r="K24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
         <v>248</v>
       </c>
-      <c r="B25" t="s">
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" t="s">
         <v>249</v>
       </c>
-      <c r="C25" t="s">
+      <c r="H25" t="s">
         <v>250</v>
       </c>
-      <c r="D25" t="s">
+      <c r="I25" t="s">
         <v>251</v>
       </c>
-      <c r="E25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="J25" t="s">
         <v>252</v>
       </c>
-      <c r="G25" t="s">
+      <c r="K25" t="s">
         <v>253</v>
       </c>
-      <c r="H25" t="s">
+      <c r="L25" t="s">
+        <v>61</v>
+      </c>
+      <c r="M25" t="s">
         <v>254</v>
-      </c>
-      <c r="I25" t="s">
-        <v>255</v>
-      </c>
-      <c r="J25" t="s">
-        <v>256</v>
-      </c>
-      <c r="K25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L25" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>255</v>
+      </c>
+      <c r="B26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" t="s">
         <v>258</v>
       </c>
-      <c r="B26" t="s">
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" t="s">
         <v>259</v>
       </c>
-      <c r="C26" t="s">
+      <c r="H26" t="s">
         <v>260</v>
       </c>
-      <c r="D26" t="s">
+      <c r="I26" t="s">
         <v>261</v>
       </c>
-      <c r="E26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="J26" t="s">
         <v>262</v>
       </c>
-      <c r="H26" t="s">
+      <c r="K26" t="s">
         <v>263</v>
       </c>
-      <c r="I26" t="s">
+      <c r="L26" t="s">
+        <v>48</v>
+      </c>
+      <c r="M26" t="s">
         <v>264</v>
-      </c>
-      <c r="J26" t="s">
-        <v>265</v>
-      </c>
-      <c r="K26" t="s">
-        <v>266</v>
-      </c>
-      <c r="L26" t="s">
-        <v>267</v>
-      </c>
-      <c r="M26" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" t="s">
+        <v>267</v>
+      </c>
+      <c r="D27" t="s">
+        <v>268</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
         <v>269</v>
       </c>
-      <c r="B27" t="s">
+      <c r="G27" t="s">
         <v>270</v>
       </c>
-      <c r="C27" t="s">
+      <c r="H27" t="s">
         <v>271</v>
       </c>
-      <c r="D27" t="s">
+      <c r="I27" t="s">
         <v>272</v>
       </c>
-      <c r="E27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="J27" t="s">
         <v>273</v>
       </c>
-      <c r="G27" t="s">
+      <c r="K27" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" t="s">
         <v>274</v>
-      </c>
-      <c r="H27" t="s">
-        <v>275</v>
-      </c>
-      <c r="I27" t="s">
-        <v>276</v>
-      </c>
-      <c r="J27" t="s">
-        <v>277</v>
-      </c>
-      <c r="K27" t="s">
-        <v>278</v>
-      </c>
-      <c r="L27" t="s">
-        <v>279</v>
-      </c>
-      <c r="M27" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>275</v>
+      </c>
+      <c r="B28" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>277</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H28" t="s">
+        <v>279</v>
+      </c>
+      <c r="I28" t="s">
+        <v>280</v>
+      </c>
+      <c r="J28" t="s">
         <v>281</v>
       </c>
-      <c r="B28" t="s">
+      <c r="K28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" t="s">
         <v>282</v>
-      </c>
-      <c r="C28" t="s">
-        <v>283</v>
-      </c>
-      <c r="D28" t="s">
-        <v>284</v>
-      </c>
-      <c r="E28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" t="s">
-        <v>285</v>
-      </c>
-      <c r="G28" t="s">
-        <v>286</v>
-      </c>
-      <c r="H28" t="s">
-        <v>287</v>
-      </c>
-      <c r="I28" t="s">
-        <v>288</v>
-      </c>
-      <c r="J28" t="s">
-        <v>289</v>
-      </c>
-      <c r="K28" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>283</v>
+      </c>
+      <c r="B29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>285</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" t="s">
+        <v>286</v>
+      </c>
+      <c r="H29" t="s">
+        <v>287</v>
+      </c>
+      <c r="I29" t="s">
+        <v>288</v>
+      </c>
+      <c r="J29" t="s">
+        <v>289</v>
+      </c>
+      <c r="K29" t="s">
+        <v>290</v>
+      </c>
+      <c r="L29" t="s">
+        <v>71</v>
+      </c>
+      <c r="M29" t="s">
         <v>291</v>
-      </c>
-      <c r="B29" t="s">
-        <v>292</v>
-      </c>
-      <c r="C29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" t="s">
-        <v>293</v>
-      </c>
-      <c r="E29" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" t="s">
-        <v>294</v>
-      </c>
-      <c r="H29" t="s">
-        <v>295</v>
-      </c>
-      <c r="I29" t="s">
-        <v>296</v>
-      </c>
-      <c r="J29" t="s">
-        <v>297</v>
-      </c>
-      <c r="K29" t="s">
-        <v>76</v>
-      </c>
-      <c r="L29" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" t="s">
+        <v>294</v>
+      </c>
+      <c r="D30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" t="s">
+        <v>296</v>
+      </c>
+      <c r="H30" t="s">
+        <v>297</v>
+      </c>
+      <c r="I30" t="s">
+        <v>298</v>
+      </c>
+      <c r="J30" t="s">
         <v>299</v>
       </c>
-      <c r="B30" t="s">
+      <c r="K30" t="s">
+        <v>218</v>
+      </c>
+      <c r="L30" t="s">
+        <v>71</v>
+      </c>
+      <c r="M30" t="s">
         <v>300</v>
-      </c>
-      <c r="C30" t="s">
-        <v>301</v>
-      </c>
-      <c r="D30" t="s">
-        <v>302</v>
-      </c>
-      <c r="E30" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" t="s">
-        <v>303</v>
-      </c>
-      <c r="G30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H30" t="s">
-        <v>305</v>
-      </c>
-      <c r="I30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J30" t="s">
-        <v>307</v>
-      </c>
-      <c r="K30" t="s">
-        <v>308</v>
-      </c>
-      <c r="L30" t="s">
-        <v>309</v>
-      </c>
-      <c r="M30" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B31" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H31" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="I31" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="J31" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="K31" t="s">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="L31" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="M31" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>310</v>
+      </c>
+      <c r="B32" t="s">
+        <v>311</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
+        <v>312</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>313</v>
+      </c>
+      <c r="G32" t="s">
+        <v>314</v>
+      </c>
+      <c r="H32" t="s">
+        <v>315</v>
+      </c>
+      <c r="I32" t="s">
+        <v>316</v>
+      </c>
+      <c r="J32" t="s">
+        <v>317</v>
+      </c>
+      <c r="K32" t="s">
+        <v>318</v>
+      </c>
+      <c r="L32" t="s">
         <v>319</v>
       </c>
-      <c r="B32" t="s">
+      <c r="M32" t="s">
         <v>320</v>
-      </c>
-      <c r="C32" t="s">
-        <v>321</v>
-      </c>
-      <c r="D32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E32" t="s">
-        <v>231</v>
-      </c>
-      <c r="F32" t="s">
-        <v>210</v>
-      </c>
-      <c r="G32" t="s">
-        <v>323</v>
-      </c>
-      <c r="H32" t="s">
-        <v>324</v>
-      </c>
-      <c r="I32" t="s">
-        <v>325</v>
-      </c>
-      <c r="J32" t="s">
-        <v>326</v>
-      </c>
-      <c r="K32" t="s">
-        <v>327</v>
-      </c>
-      <c r="L32" t="s">
-        <v>328</v>
-      </c>
-      <c r="M32" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B33" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C33" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D33" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E33" t="s">
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>333</v>
+        <v>97</v>
       </c>
       <c r="G33" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="H33" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="I33" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="J33" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="K33" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="L33" t="s">
-        <v>339</v>
+        <v>71</v>
       </c>
       <c r="M33" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B34" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C34" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="D34" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="E34" t="s">
-        <v>231</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="G34" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="H34" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="I34" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="J34" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="K34" t="s">
-        <v>99</v>
+        <v>338</v>
       </c>
       <c r="L34" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="M34" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B35" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="E35" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="G35" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="H35" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="I35" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="J35" t="s">
-        <v>214</v>
+        <v>348</v>
       </c>
       <c r="K35" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="L35" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="M35" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>350</v>
+      </c>
+      <c r="B36" t="s">
+        <v>351</v>
+      </c>
+      <c r="C36" t="s">
+        <v>352</v>
+      </c>
+      <c r="D36" t="s">
+        <v>353</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>354</v>
+      </c>
+      <c r="G36" t="s">
+        <v>355</v>
+      </c>
+      <c r="H36" t="s">
+        <v>356</v>
+      </c>
+      <c r="I36" t="s">
+        <v>357</v>
+      </c>
+      <c r="J36" t="s">
+        <v>358</v>
+      </c>
+      <c r="K36" t="s">
+        <v>92</v>
+      </c>
+      <c r="L36" t="s">
+        <v>71</v>
+      </c>
+      <c r="M36" t="s">
         <v>359</v>
-      </c>
-      <c r="B36" t="s">
-        <v>360</v>
-      </c>
-      <c r="C36" t="s">
-        <v>361</v>
-      </c>
-      <c r="D36" t="s">
-        <v>362</v>
-      </c>
-      <c r="E36" t="s">
-        <v>231</v>
-      </c>
-      <c r="F36" t="s">
-        <v>363</v>
-      </c>
-      <c r="G36" t="s">
-        <v>364</v>
-      </c>
-      <c r="H36" t="s">
-        <v>365</v>
-      </c>
-      <c r="I36" t="s">
-        <v>366</v>
-      </c>
-      <c r="J36" t="s">
-        <v>367</v>
-      </c>
-      <c r="K36" t="s">
-        <v>76</v>
-      </c>
-      <c r="L36" t="s">
-        <v>368</v>
-      </c>
-      <c r="M36" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>360</v>
+      </c>
+      <c r="B37" t="s">
+        <v>361</v>
+      </c>
+      <c r="C37" t="s">
+        <v>362</v>
+      </c>
+      <c r="D37" t="s">
+        <v>363</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" t="s">
+        <v>364</v>
+      </c>
+      <c r="H37" t="s">
+        <v>365</v>
+      </c>
+      <c r="I37" t="s">
+        <v>366</v>
+      </c>
+      <c r="J37" t="s">
+        <v>367</v>
+      </c>
+      <c r="K37" t="s">
+        <v>368</v>
+      </c>
+      <c r="L37" t="s">
+        <v>369</v>
+      </c>
+      <c r="M37" t="s">
         <v>370</v>
-      </c>
-      <c r="B37" t="s">
-        <v>371</v>
-      </c>
-      <c r="C37" t="s">
-        <v>372</v>
-      </c>
-      <c r="D37" t="s">
-        <v>373</v>
-      </c>
-      <c r="E37" t="s">
-        <v>231</v>
-      </c>
-      <c r="F37" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" t="s">
-        <v>374</v>
-      </c>
-      <c r="H37" t="s">
-        <v>375</v>
-      </c>
-      <c r="I37" t="s">
-        <v>376</v>
-      </c>
-      <c r="J37" t="s">
-        <v>377</v>
-      </c>
-      <c r="K37" t="s">
-        <v>76</v>
-      </c>
-      <c r="L37" t="s">
-        <v>368</v>
-      </c>
-      <c r="M37" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>371</v>
+      </c>
+      <c r="B38" t="s">
+        <v>372</v>
+      </c>
+      <c r="C38" t="s">
+        <v>373</v>
+      </c>
+      <c r="D38" t="s">
+        <v>374</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>375</v>
+      </c>
+      <c r="G38" t="s">
+        <v>376</v>
+      </c>
+      <c r="H38" t="s">
+        <v>377</v>
+      </c>
+      <c r="I38" t="s">
+        <v>378</v>
+      </c>
+      <c r="J38" t="s">
         <v>379</v>
       </c>
-      <c r="B38" t="s">
+      <c r="K38" t="s">
         <v>380</v>
       </c>
-      <c r="C38" t="s">
+      <c r="L38" t="s">
         <v>381</v>
       </c>
-      <c r="D38" t="s">
+      <c r="M38" t="s">
         <v>382</v>
-      </c>
-      <c r="E38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" t="s">
-        <v>380</v>
-      </c>
-      <c r="G38" t="s">
-        <v>383</v>
-      </c>
-      <c r="H38" t="s">
-        <v>384</v>
-      </c>
-      <c r="I38" t="s">
-        <v>385</v>
-      </c>
-      <c r="J38" t="s">
-        <v>386</v>
-      </c>
-      <c r="K38" t="s">
-        <v>99</v>
-      </c>
-      <c r="L38" t="s">
-        <v>387</v>
-      </c>
-      <c r="M38" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>383</v>
+      </c>
+      <c r="B39" t="s">
+        <v>384</v>
+      </c>
+      <c r="C39" t="s">
+        <v>385</v>
+      </c>
+      <c r="D39" t="s">
+        <v>386</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>387</v>
+      </c>
+      <c r="G39" t="s">
+        <v>388</v>
+      </c>
+      <c r="H39" t="s">
         <v>389</v>
       </c>
-      <c r="B39" t="s">
+      <c r="I39" t="s">
         <v>390</v>
       </c>
-      <c r="C39" t="s">
+      <c r="J39" t="s">
         <v>391</v>
       </c>
-      <c r="D39" t="s">
+      <c r="K39" t="s">
+        <v>47</v>
+      </c>
+      <c r="L39" t="s">
+        <v>71</v>
+      </c>
+      <c r="M39" t="s">
         <v>392</v>
-      </c>
-      <c r="E39" t="s">
-        <v>231</v>
-      </c>
-      <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>393</v>
-      </c>
-      <c r="H39" t="s">
-        <v>394</v>
-      </c>
-      <c r="I39" t="s">
-        <v>395</v>
-      </c>
-      <c r="J39" t="s">
-        <v>396</v>
-      </c>
-      <c r="K39" t="s">
-        <v>397</v>
-      </c>
-      <c r="L39" t="s">
-        <v>398</v>
-      </c>
-      <c r="M39" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>393</v>
+      </c>
+      <c r="B40" t="s">
+        <v>394</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>395</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" t="s">
+        <v>396</v>
+      </c>
+      <c r="H40" t="s">
+        <v>397</v>
+      </c>
+      <c r="I40" t="s">
+        <v>398</v>
+      </c>
+      <c r="J40" t="s">
+        <v>399</v>
+      </c>
+      <c r="K40" t="s">
+        <v>92</v>
+      </c>
+      <c r="L40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M40" t="s">
         <v>400</v>
-      </c>
-      <c r="B40" t="s">
-        <v>401</v>
-      </c>
-      <c r="C40" t="s">
-        <v>402</v>
-      </c>
-      <c r="D40" t="s">
-        <v>403</v>
-      </c>
-      <c r="E40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" t="s">
-        <v>404</v>
-      </c>
-      <c r="G40" t="s">
-        <v>405</v>
-      </c>
-      <c r="H40" t="s">
-        <v>406</v>
-      </c>
-      <c r="I40" t="s">
-        <v>407</v>
-      </c>
-      <c r="J40" t="s">
-        <v>408</v>
-      </c>
-      <c r="K40" t="s">
-        <v>409</v>
-      </c>
-      <c r="L40" t="s">
-        <v>398</v>
-      </c>
-      <c r="M40" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>401</v>
+      </c>
+      <c r="B41" t="s">
+        <v>402</v>
+      </c>
+      <c r="C41" t="s">
+        <v>403</v>
+      </c>
+      <c r="D41" t="s">
+        <v>404</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>157</v>
+      </c>
+      <c r="G41" t="s">
+        <v>405</v>
+      </c>
+      <c r="H41" t="s">
+        <v>406</v>
+      </c>
+      <c r="I41" t="s">
+        <v>407</v>
+      </c>
+      <c r="J41" t="s">
+        <v>408</v>
+      </c>
+      <c r="K41" t="s">
+        <v>409</v>
+      </c>
+      <c r="L41" t="s">
+        <v>410</v>
+      </c>
+      <c r="M41" t="s">
         <v>411</v>
-      </c>
-      <c r="B41" t="s">
-        <v>412</v>
-      </c>
-      <c r="C41" t="s">
-        <v>412</v>
-      </c>
-      <c r="D41" t="s">
-        <v>413</v>
-      </c>
-      <c r="E41" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" t="s">
-        <v>414</v>
-      </c>
-      <c r="G41" t="s">
-        <v>415</v>
-      </c>
-      <c r="H41" t="s">
-        <v>416</v>
-      </c>
-      <c r="I41" t="s">
-        <v>417</v>
-      </c>
-      <c r="J41" t="s">
-        <v>418</v>
-      </c>
-      <c r="K41" t="s">
-        <v>76</v>
-      </c>
-      <c r="L41" t="s">
-        <v>398</v>
-      </c>
-      <c r="M41" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B42" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E42" t="s">
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="G42" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="H42" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="I42" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="J42" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="K42" t="s">
-        <v>427</v>
+        <v>92</v>
       </c>
       <c r="L42" t="s">
-        <v>428</v>
+        <v>71</v>
       </c>
       <c r="M42" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>420</v>
+      </c>
+      <c r="B43" t="s">
+        <v>421</v>
+      </c>
+      <c r="C43" t="s">
+        <v>422</v>
+      </c>
+      <c r="D43" t="s">
+        <v>423</v>
+      </c>
+      <c r="E43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" t="s">
+        <v>313</v>
+      </c>
+      <c r="G43" t="s">
+        <v>424</v>
+      </c>
+      <c r="H43" t="s">
+        <v>425</v>
+      </c>
+      <c r="I43" t="s">
+        <v>426</v>
+      </c>
+      <c r="J43" t="s">
+        <v>427</v>
+      </c>
+      <c r="K43" t="s">
+        <v>428</v>
+      </c>
+      <c r="L43" t="s">
+        <v>429</v>
+      </c>
+      <c r="M43" t="s">
         <v>430</v>
       </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
         <v>431</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B44" t="s">
         <v>432</v>
       </c>
-      <c r="D43" t="s">
+      <c r="C44" t="s">
+        <v>432</v>
+      </c>
+      <c r="D44" t="s">
         <v>433</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" t="s">
+        <v>434</v>
+      </c>
+      <c r="G44" t="s">
+        <v>435</v>
+      </c>
+      <c r="H44" t="s">
+        <v>436</v>
+      </c>
+      <c r="I44" t="s">
+        <v>437</v>
+      </c>
+      <c r="J44" t="s">
+        <v>438</v>
+      </c>
+      <c r="K44" t="s">
+        <v>439</v>
+      </c>
+      <c r="L44" t="s">
+        <v>440</v>
+      </c>
+      <c r="M44" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>442</v>
+      </c>
+      <c r="B45" t="s">
+        <v>443</v>
+      </c>
+      <c r="C45" t="s">
+        <v>444</v>
+      </c>
+      <c r="D45" t="s">
+        <v>445</v>
+      </c>
+      <c r="E45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" t="s">
+        <v>446</v>
+      </c>
+      <c r="H45" t="s">
+        <v>447</v>
+      </c>
+      <c r="I45" t="s">
+        <v>448</v>
+      </c>
+      <c r="J45" t="s">
+        <v>449</v>
+      </c>
+      <c r="K45" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" t="s">
+        <v>450</v>
+      </c>
+      <c r="M45" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>452</v>
+      </c>
+      <c r="B46" t="s">
+        <v>453</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>454</v>
+      </c>
+      <c r="E46" t="s">
         <v>17</v>
       </c>
-      <c r="F43" t="s">
-        <v>434</v>
-      </c>
-      <c r="G43" t="s">
-        <v>435</v>
-      </c>
-      <c r="H43" t="s">
-        <v>436</v>
-      </c>
-      <c r="I43" t="s">
-        <v>437</v>
-      </c>
-      <c r="J43" t="s">
-        <v>438</v>
-      </c>
-      <c r="K43" t="s">
-        <v>88</v>
-      </c>
-      <c r="L43" t="s">
-        <v>77</v>
-      </c>
-      <c r="M43" t="s">
-        <v>439</v>
+      <c r="F46" t="s">
+        <v>455</v>
+      </c>
+      <c r="G46" t="s">
+        <v>456</v>
+      </c>
+      <c r="H46" t="s">
+        <v>457</v>
+      </c>
+      <c r="I46" t="s">
+        <v>458</v>
+      </c>
+      <c r="J46" t="s">
+        <v>317</v>
+      </c>
+      <c r="K46" t="s">
+        <v>47</v>
+      </c>
+      <c r="L46" t="s">
+        <v>71</v>
+      </c>
+      <c r="M46" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>460</v>
+      </c>
+      <c r="B47" t="s">
+        <v>461</v>
+      </c>
+      <c r="C47" t="s">
+        <v>462</v>
+      </c>
+      <c r="D47" t="s">
+        <v>463</v>
+      </c>
+      <c r="E47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" t="s">
+        <v>464</v>
+      </c>
+      <c r="G47" t="s">
+        <v>465</v>
+      </c>
+      <c r="H47" t="s">
+        <v>466</v>
+      </c>
+      <c r="I47" t="s">
+        <v>467</v>
+      </c>
+      <c r="J47" t="s">
+        <v>468</v>
+      </c>
+      <c r="K47" t="s">
+        <v>92</v>
+      </c>
+      <c r="L47" t="s">
+        <v>469</v>
+      </c>
+      <c r="M47" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>471</v>
+      </c>
+      <c r="B48" t="s">
+        <v>472</v>
+      </c>
+      <c r="C48" t="s">
+        <v>473</v>
+      </c>
+      <c r="D48" t="s">
+        <v>474</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" t="s">
+        <v>475</v>
+      </c>
+      <c r="H48" t="s">
+        <v>476</v>
+      </c>
+      <c r="I48" t="s">
+        <v>477</v>
+      </c>
+      <c r="J48" t="s">
+        <v>478</v>
+      </c>
+      <c r="K48" t="s">
+        <v>92</v>
+      </c>
+      <c r="L48" t="s">
+        <v>469</v>
+      </c>
+      <c r="M48" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>480</v>
+      </c>
+      <c r="B49" t="s">
+        <v>481</v>
+      </c>
+      <c r="C49" t="s">
+        <v>482</v>
+      </c>
+      <c r="D49" t="s">
+        <v>483</v>
+      </c>
+      <c r="E49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" t="s">
+        <v>97</v>
+      </c>
+      <c r="G49" t="s">
+        <v>484</v>
+      </c>
+      <c r="H49" t="s">
+        <v>485</v>
+      </c>
+      <c r="I49" t="s">
+        <v>486</v>
+      </c>
+      <c r="J49" t="s">
+        <v>487</v>
+      </c>
+      <c r="K49" t="s">
+        <v>488</v>
+      </c>
+      <c r="L49" t="s">
+        <v>489</v>
+      </c>
+      <c r="M49" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>491</v>
+      </c>
+      <c r="B50" t="s">
+        <v>492</v>
+      </c>
+      <c r="C50" t="s">
+        <v>493</v>
+      </c>
+      <c r="D50" t="s">
+        <v>494</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50" t="s">
+        <v>495</v>
+      </c>
+      <c r="H50" t="s">
+        <v>496</v>
+      </c>
+      <c r="I50" t="s">
+        <v>497</v>
+      </c>
+      <c r="J50" t="s">
+        <v>498</v>
+      </c>
+      <c r="K50" t="s">
+        <v>92</v>
+      </c>
+      <c r="L50" t="s">
+        <v>499</v>
+      </c>
+      <c r="M50" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>501</v>
+      </c>
+      <c r="B51" t="s">
+        <v>502</v>
+      </c>
+      <c r="C51" t="s">
+        <v>482</v>
+      </c>
+      <c r="D51" t="s">
+        <v>503</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" t="s">
+        <v>504</v>
+      </c>
+      <c r="H51" t="s">
+        <v>505</v>
+      </c>
+      <c r="I51" t="s">
+        <v>506</v>
+      </c>
+      <c r="J51" t="s">
+        <v>507</v>
+      </c>
+      <c r="K51" t="s">
+        <v>508</v>
+      </c>
+      <c r="L51" t="s">
+        <v>509</v>
+      </c>
+      <c r="M51" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>511</v>
+      </c>
+      <c r="B52" t="s">
+        <v>512</v>
+      </c>
+      <c r="C52" t="s">
+        <v>513</v>
+      </c>
+      <c r="D52" t="s">
+        <v>514</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" t="s">
+        <v>515</v>
+      </c>
+      <c r="H52" t="s">
+        <v>516</v>
+      </c>
+      <c r="I52" t="s">
+        <v>517</v>
+      </c>
+      <c r="J52" t="s">
+        <v>518</v>
+      </c>
+      <c r="K52" t="s">
+        <v>519</v>
+      </c>
+      <c r="L52" t="s">
+        <v>520</v>
+      </c>
+      <c r="M52" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>522</v>
+      </c>
+      <c r="B53" t="s">
+        <v>523</v>
+      </c>
+      <c r="C53" t="s">
+        <v>482</v>
+      </c>
+      <c r="D53" t="s">
+        <v>524</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" t="s">
+        <v>97</v>
+      </c>
+      <c r="G53" t="s">
+        <v>525</v>
+      </c>
+      <c r="H53" t="s">
+        <v>526</v>
+      </c>
+      <c r="I53" t="s">
+        <v>527</v>
+      </c>
+      <c r="J53" t="s">
+        <v>528</v>
+      </c>
+      <c r="K53" t="s">
+        <v>508</v>
+      </c>
+      <c r="L53" t="s">
+        <v>529</v>
+      </c>
+      <c r="M53" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>531</v>
+      </c>
+      <c r="B54" t="s">
+        <v>532</v>
+      </c>
+      <c r="C54" t="s">
+        <v>533</v>
+      </c>
+      <c r="D54" t="s">
+        <v>534</v>
+      </c>
+      <c r="E54" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" t="s">
+        <v>535</v>
+      </c>
+      <c r="H54" t="s">
+        <v>536</v>
+      </c>
+      <c r="I54" t="s">
+        <v>537</v>
+      </c>
+      <c r="J54" t="s">
+        <v>508</v>
+      </c>
+      <c r="K54" t="s">
+        <v>508</v>
+      </c>
+      <c r="L54" t="s">
+        <v>538</v>
+      </c>
+      <c r="M54" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>540</v>
+      </c>
+      <c r="B55" t="s">
+        <v>541</v>
+      </c>
+      <c r="C55" t="s">
+        <v>542</v>
+      </c>
+      <c r="D55" t="s">
+        <v>543</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" t="s">
+        <v>544</v>
+      </c>
+      <c r="G55" t="s">
+        <v>545</v>
+      </c>
+      <c r="H55" t="s">
+        <v>546</v>
+      </c>
+      <c r="I55" t="s">
+        <v>547</v>
+      </c>
+      <c r="J55" t="s">
+        <v>548</v>
+      </c>
+      <c r="K55" t="s">
+        <v>132</v>
+      </c>
+      <c r="L55" t="s">
+        <v>549</v>
+      </c>
+      <c r="M55" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>551</v>
+      </c>
+      <c r="B56" t="s">
+        <v>552</v>
+      </c>
+      <c r="C56" t="s">
+        <v>553</v>
+      </c>
+      <c r="D56" t="s">
+        <v>554</v>
+      </c>
+      <c r="E56" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" t="s">
+        <v>555</v>
+      </c>
+      <c r="G56" t="s">
+        <v>556</v>
+      </c>
+      <c r="H56" t="s">
+        <v>557</v>
+      </c>
+      <c r="I56" t="s">
+        <v>558</v>
+      </c>
+      <c r="J56" t="s">
+        <v>559</v>
+      </c>
+      <c r="K56" t="s">
+        <v>560</v>
+      </c>
+      <c r="L56" t="s">
+        <v>561</v>
+      </c>
+      <c r="M56" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>563</v>
+      </c>
+      <c r="B57" t="s">
+        <v>564</v>
+      </c>
+      <c r="C57" t="s">
+        <v>565</v>
+      </c>
+      <c r="D57" t="s">
+        <v>566</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" t="s">
+        <v>564</v>
+      </c>
+      <c r="G57" t="s">
+        <v>567</v>
+      </c>
+      <c r="H57" t="s">
+        <v>568</v>
+      </c>
+      <c r="I57" t="s">
+        <v>569</v>
+      </c>
+      <c r="J57" t="s">
+        <v>570</v>
+      </c>
+      <c r="K57" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" t="s">
+        <v>571</v>
+      </c>
+      <c r="M57" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>573</v>
+      </c>
+      <c r="B58" t="s">
+        <v>574</v>
+      </c>
+      <c r="C58" t="s">
+        <v>575</v>
+      </c>
+      <c r="D58" t="s">
+        <v>576</v>
+      </c>
+      <c r="E58" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" t="s">
+        <v>67</v>
+      </c>
+      <c r="G58" t="s">
+        <v>577</v>
+      </c>
+      <c r="H58" t="s">
+        <v>578</v>
+      </c>
+      <c r="I58" t="s">
+        <v>579</v>
+      </c>
+      <c r="J58" t="s">
+        <v>580</v>
+      </c>
+      <c r="K58" t="s">
+        <v>560</v>
+      </c>
+      <c r="L58" t="s">
+        <v>24</v>
+      </c>
+      <c r="M58" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>582</v>
+      </c>
+      <c r="B59" t="s">
+        <v>583</v>
+      </c>
+      <c r="C59" t="s">
+        <v>584</v>
+      </c>
+      <c r="D59" t="s">
+        <v>585</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" t="s">
+        <v>586</v>
+      </c>
+      <c r="G59" t="s">
+        <v>587</v>
+      </c>
+      <c r="H59" t="s">
+        <v>588</v>
+      </c>
+      <c r="I59" t="s">
+        <v>589</v>
+      </c>
+      <c r="J59" t="s">
+        <v>590</v>
+      </c>
+      <c r="K59" t="s">
+        <v>591</v>
+      </c>
+      <c r="L59" t="s">
+        <v>24</v>
+      </c>
+      <c r="M59" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>593</v>
+      </c>
+      <c r="B60" t="s">
+        <v>594</v>
+      </c>
+      <c r="C60" t="s">
+        <v>594</v>
+      </c>
+      <c r="D60" t="s">
+        <v>595</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" t="s">
+        <v>596</v>
+      </c>
+      <c r="G60" t="s">
+        <v>597</v>
+      </c>
+      <c r="H60" t="s">
+        <v>598</v>
+      </c>
+      <c r="I60" t="s">
+        <v>599</v>
+      </c>
+      <c r="J60" t="s">
+        <v>600</v>
+      </c>
+      <c r="K60" t="s">
+        <v>92</v>
+      </c>
+      <c r="L60" t="s">
+        <v>24</v>
+      </c>
+      <c r="M60" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/sheets/codearena.xlsx
+++ b/src/main/resources/sheets/codearena.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="772">
   <si>
     <t>Id</t>
   </si>
@@ -53,6 +53,279 @@
     <t>TimeStamp</t>
   </si>
   <si>
+    <t>69555270</t>
+  </si>
+  <si>
+    <t>Himanshu Srivastava</t>
+  </si>
+  <si>
+    <t>Cambridge Institute of Technology Bangalore</t>
+  </si>
+  <si>
+    <t>1CD20CS060</t>
+  </si>
+  <si>
+    <t>2nd Year</t>
+  </si>
+  <si>
+    <t>Computer Science Engineering</t>
+  </si>
+  <si>
+    <t>himanshu20032002@gmail.com</t>
+  </si>
+  <si>
+    <t>9474736365</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/himanshusri</t>
+  </si>
+  <si>
+    <t>KR Puram, Bangalore</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>560036</t>
+  </si>
+  <si>
+    <t>Mon Dec 13 11:20:59 UTC 2021</t>
+  </si>
+  <si>
+    <t>42881974</t>
+  </si>
+  <si>
+    <t>Sagar A</t>
+  </si>
+  <si>
+    <t>Don Bosco institute of technology</t>
+  </si>
+  <si>
+    <t>1DB20CS092</t>
+  </si>
+  <si>
+    <t>Computer science engineering</t>
+  </si>
+  <si>
+    <t>sagar0942002@gmail.com</t>
+  </si>
+  <si>
+    <t>9606466889</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/sagar0942002?hr_r=1</t>
+  </si>
+  <si>
+    <t>#9,1st main,2nd cross,HV Halli,RR Nagar, Bangalore</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>560998</t>
+  </si>
+  <si>
+    <t>Mon Dec 13 14:36:36 UTC 2021</t>
+  </si>
+  <si>
+    <t>16271371</t>
+  </si>
+  <si>
+    <t>Priyank Singh</t>
+  </si>
+  <si>
+    <t>R V College of Engineering</t>
+  </si>
+  <si>
+    <t>1RV18CS122</t>
+  </si>
+  <si>
+    <t>4th Year</t>
+  </si>
+  <si>
+    <t>Computer science</t>
+  </si>
+  <si>
+    <t>priyankkumars.cs18@rvce.edu.in</t>
+  </si>
+  <si>
+    <t>9380685435</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/priyankkumars_c1</t>
+  </si>
+  <si>
+    <t>R V college of engineering</t>
+  </si>
+  <si>
+    <t>560059</t>
+  </si>
+  <si>
+    <t>Sun Dec 12 07:16:04 UTC 2021</t>
+  </si>
+  <si>
+    <t>17797175</t>
+  </si>
+  <si>
+    <t>Akshay  Mammen Koshy</t>
+  </si>
+  <si>
+    <t>RV COLLEGE OF ENGINEERING</t>
+  </si>
+  <si>
+    <t>1RV19CS011</t>
+  </si>
+  <si>
+    <t>3rd Year</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>akshaykoshy2000@gmail.com</t>
+  </si>
+  <si>
+    <t>8970187777</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/akshaykoshy2000</t>
+  </si>
+  <si>
+    <t>NO 32 2ND FLOOR 16TH CROSS KANAKANAGAR</t>
+  </si>
+  <si>
+    <t>BENGALURU,Karnataka</t>
+  </si>
+  <si>
+    <t>560032</t>
+  </si>
+  <si>
+    <t>Mon Dec 13 08:40:15 UTC 2021</t>
+  </si>
+  <si>
+    <t>32644615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anant Vikram  Singh Rathore </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R.V. College of engineering </t>
+  </si>
+  <si>
+    <t>1RV20CS020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer science &amp; engineering </t>
+  </si>
+  <si>
+    <t>anantvikramsr.cs20@rvce.edu.in</t>
+  </si>
+  <si>
+    <t>6376079521</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/anantvsr001</t>
+  </si>
+  <si>
+    <t>Ss pg, pattanagere main road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bengaluru </t>
+  </si>
+  <si>
+    <t>Sun Dec 12 03:06:35 UTC 2021</t>
+  </si>
+  <si>
+    <t>44776940</t>
+  </si>
+  <si>
+    <t>Maya S Rao</t>
+  </si>
+  <si>
+    <t>1RV20CS083</t>
+  </si>
+  <si>
+    <t>mayasrao25@gmail.com</t>
+  </si>
+  <si>
+    <t>7829808808</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/mayasrao25</t>
+  </si>
+  <si>
+    <t>B312 , Cauvery Hostel , R V College Of Engineering , Mysore Rd, RV Vidyaniketan, Post, Bengaluru, Karnataka 560059</t>
+  </si>
+  <si>
+    <t>Sat Dec 11 19:35:42 UTC 2021</t>
+  </si>
+  <si>
+    <t>74287498</t>
+  </si>
+  <si>
+    <t>Prajwal T S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R.V.college of engineering </t>
+  </si>
+  <si>
+    <t>1RV20CS114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer science and engineering </t>
+  </si>
+  <si>
+    <t>prajwalgowda733@gmail.com</t>
+  </si>
+  <si>
+    <t>9353940838</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/kingslayer_733</t>
+  </si>
+  <si>
+    <t>Tadagavadi, Araker Hobali,srirangapattana  Taluk,mandya,karnataka</t>
+  </si>
+  <si>
+    <t>Mandya</t>
+  </si>
+  <si>
+    <t>571415</t>
+  </si>
+  <si>
+    <t>Mon Dec 13 05:16:05 UTC 2021</t>
+  </si>
+  <si>
+    <t>85642642</t>
+  </si>
+  <si>
+    <t>Vageesh Anagdi</t>
+  </si>
+  <si>
+    <t>R V COLLEGE OF ENGINEERING, BANGALORE</t>
+  </si>
+  <si>
+    <t>1RV20CS181</t>
+  </si>
+  <si>
+    <t>Computer science and engineering</t>
+  </si>
+  <si>
+    <t>vageeshangadi62@gmail.com</t>
+  </si>
+  <si>
+    <t>7483482537</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/vageeshangadi62?h_r=internal-search&amp;hr_r=1</t>
+  </si>
+  <si>
+    <t>Global village front gate, off, Mysore Rd, near R.v. college, R.V, C..post, Bengaluru, Karnataka 560059</t>
+  </si>
+  <si>
+    <t>Mon Dec 13 11:36:56 UTC 2021</t>
+  </si>
+  <si>
     <t>99588965</t>
   </si>
   <si>
@@ -65,9 +338,6 @@
     <t>1RV20CS183</t>
   </si>
   <si>
-    <t>2nd Year</t>
-  </si>
-  <si>
     <t xml:space="preserve">Computer Science and Engineering </t>
   </si>
   <si>
@@ -86,12 +356,78 @@
     <t>Bangalore</t>
   </si>
   <si>
-    <t>560059</t>
-  </si>
-  <si>
     <t>Sun Dec 12 10:54:54 UTC 2021</t>
   </si>
   <si>
+    <t>40093905</t>
+  </si>
+  <si>
+    <t>AMISH RAJ GUPTA</t>
+  </si>
+  <si>
+    <t>R V COLLEGE OF ENGINEERING</t>
+  </si>
+  <si>
+    <t>1RV20ET008</t>
+  </si>
+  <si>
+    <t>INFORMATION SCIENCE AND ENGINEERING</t>
+  </si>
+  <si>
+    <t>amishrajgupta.is20@rvce.edu.in</t>
+  </si>
+  <si>
+    <t>8340728341</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/amishrajggupta11</t>
+  </si>
+  <si>
+    <t>near pattanagar metro station</t>
+  </si>
+  <si>
+    <t>BANGALORE</t>
+  </si>
+  <si>
+    <t>Mon Dec 13 10:41:24 UTC 2021</t>
+  </si>
+  <si>
+    <t>61818955</t>
+  </si>
+  <si>
+    <t>Yashwanth Kumar  M V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSS Science and Technology University,MYSORE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01JST20CS179 </t>
+  </si>
+  <si>
+    <t>CSE</t>
+  </si>
+  <si>
+    <t>mvyashwanthkumar@gmail.com</t>
+  </si>
+  <si>
+    <t>8904333426</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/mvyashwanthkumar</t>
+  </si>
+  <si>
+    <t>SJCE BOYS HOSTEL, JSS SCIENCE AND TECHNOLOGY UNIVERSITY</t>
+  </si>
+  <si>
+    <t>Mysore</t>
+  </si>
+  <si>
+    <t>570006</t>
+  </si>
+  <si>
+    <t>Sat Dec 11 11:35:12 UTC 2021</t>
+  </si>
+  <si>
     <t>42043320</t>
   </si>
   <si>
@@ -104,12 +440,6 @@
     <t>1SI18CS042</t>
   </si>
   <si>
-    <t>4th Year</t>
-  </si>
-  <si>
-    <t>Computer science engineering</t>
-  </si>
-  <si>
     <t>kalleabhishek@gmail.com</t>
   </si>
   <si>
@@ -140,9 +470,6 @@
     <t>1SI18CS057</t>
   </si>
   <si>
-    <t>Computer science and engineering</t>
-  </si>
-  <si>
     <t>sayeedofficial6220@gmail.com</t>
   </si>
   <si>
@@ -164,6 +491,39 @@
     <t>Sun Dec 12 12:41:43 UTC 2021</t>
   </si>
   <si>
+    <t>37289720</t>
+  </si>
+  <si>
+    <t>Gagan Bharadwaj</t>
+  </si>
+  <si>
+    <t>Siddaganga Institute of Technology</t>
+  </si>
+  <si>
+    <t>1SI18EC034</t>
+  </si>
+  <si>
+    <t>Electronics and Communications</t>
+  </si>
+  <si>
+    <t>gaganj.1si18ec034@gmail.com</t>
+  </si>
+  <si>
+    <t>9380542133</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/gaganj_1si18ec01</t>
+  </si>
+  <si>
+    <t>Akshatha,12th cross,2nd link road,SIT extension,Tumkur</t>
+  </si>
+  <si>
+    <t>572103</t>
+  </si>
+  <si>
+    <t>Mon Dec 13 12:16:09 UTC 2021</t>
+  </si>
+  <si>
     <t>7488744</t>
   </si>
   <si>
@@ -176,9 +536,6 @@
     <t>1SI19CS017</t>
   </si>
   <si>
-    <t>3rd Year</t>
-  </si>
-  <si>
     <t>computer science and engineering</t>
   </si>
   <si>
@@ -215,9 +572,6 @@
     <t>1SI19CS056</t>
   </si>
   <si>
-    <t>Computer science</t>
-  </si>
-  <si>
     <t>1si19cs056@sit.ac.in</t>
   </si>
   <si>
@@ -227,9 +581,6 @@
     <t>https://github.com/Jyothishree20</t>
   </si>
   <si>
-    <t>572103</t>
-  </si>
-  <si>
     <t>Fri Dec 10 04:55:00 UTC 2021</t>
   </si>
   <si>
@@ -269,15 +620,48 @@
     <t>Wed Dec 08 05:15:51 UTC 2021</t>
   </si>
   <si>
+    <t>6227276</t>
+  </si>
+  <si>
+    <t>MEHUL BHARDWAJ</t>
+  </si>
+  <si>
+    <t>SIDDAGANGA INSTITUTE OF TECHNOLOGY TUMKUR</t>
+  </si>
+  <si>
+    <t>1SI19CS076</t>
+  </si>
+  <si>
+    <t>computer science</t>
+  </si>
+  <si>
+    <t>bhardwajmehul1609@gmail.com</t>
+  </si>
+  <si>
+    <t>9523053591</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/bhardwajmehul161</t>
+  </si>
+  <si>
+    <t>MAGADH COLONY MUNGERILAL GALI KURJI</t>
+  </si>
+  <si>
+    <t>PATNA/BIHAR</t>
+  </si>
+  <si>
+    <t>800010</t>
+  </si>
+  <si>
+    <t>Mon Dec 13 07:33:18 UTC 2021</t>
+  </si>
+  <si>
     <t>23990517</t>
   </si>
   <si>
     <t>Monika K S</t>
   </si>
   <si>
-    <t>Siddaganga Institute of Technology</t>
-  </si>
-  <si>
     <t>1SI19CS079</t>
   </si>
   <si>
@@ -290,9 +674,6 @@
     <t>https://www.hackerrank.com/monika_k_s</t>
   </si>
   <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
     <t>Sun Dec 12 17:08:15 UTC 2021</t>
   </si>
   <si>
@@ -356,6 +737,39 @@
     <t>Sun Dec 12 12:44:04 UTC 2021</t>
   </si>
   <si>
+    <t>84971134</t>
+  </si>
+  <si>
+    <t>Reddy Soha  Tabassum</t>
+  </si>
+  <si>
+    <t>Ashoka women's engineering College</t>
+  </si>
+  <si>
+    <t>07680076600</t>
+  </si>
+  <si>
+    <t>tabassumtarunnam@gmail.com</t>
+  </si>
+  <si>
+    <t>9390947376</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/auth/confirm_account?confirmation_token=xLSRTxM-obmvYJo83RvT</t>
+  </si>
+  <si>
+    <t>1-659,2nd road , Anantapur</t>
+  </si>
+  <si>
+    <t>Anantapur</t>
+  </si>
+  <si>
+    <t>515001</t>
+  </si>
+  <si>
+    <t>Sun Dec 12 17:35:59 UTC 2021</t>
+  </si>
+  <si>
     <t>26101275</t>
   </si>
   <si>
@@ -383,42 +797,6 @@
     <t>Sun Dec 12 11:49:38 UTC 2021</t>
   </si>
   <si>
-    <t>61818955</t>
-  </si>
-  <si>
-    <t>Yashwanth Kumar  M V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JSS Science and Technology University,MYSORE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">01JST20CS179 </t>
-  </si>
-  <si>
-    <t>CSE</t>
-  </si>
-  <si>
-    <t>mvyashwanthkumar@gmail.com</t>
-  </si>
-  <si>
-    <t>8904333426</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/mvyashwanthkumar</t>
-  </si>
-  <si>
-    <t>SJCE BOYS HOSTEL, JSS SCIENCE AND TECHNOLOGY UNIVERSITY</t>
-  </si>
-  <si>
-    <t>Mysore</t>
-  </si>
-  <si>
-    <t>570006</t>
-  </si>
-  <si>
-    <t>Sat Dec 11 11:35:12 UTC 2021</t>
-  </si>
-  <si>
     <t>11818880</t>
   </si>
   <si>
@@ -584,6 +962,63 @@
     <t>Sat Dec 11 19:02:06 UTC 2021</t>
   </si>
   <si>
+    <t>87804303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saijal Shankar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siddaganga Institute of Technology </t>
+  </si>
+  <si>
+    <t>1SI19IS046</t>
+  </si>
+  <si>
+    <t>Ise</t>
+  </si>
+  <si>
+    <t>saijalshankar16@gmail.com</t>
+  </si>
+  <si>
+    <t>7004357662</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/saijalshankar16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akkamadevi hostel </t>
+  </si>
+  <si>
+    <t>Mon Dec 13 08:17:59 UTC 2021</t>
+  </si>
+  <si>
+    <t>57470268</t>
+  </si>
+  <si>
+    <t>Tejas  S</t>
+  </si>
+  <si>
+    <t>1SI19IS064</t>
+  </si>
+  <si>
+    <t>tejasgowdas2001@gmail.com</t>
+  </si>
+  <si>
+    <t>9148282448</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/tejasgowdas2001</t>
+  </si>
+  <si>
+    <t>Thejas Nilaya near siri culture office ,maralur Tumkur</t>
+  </si>
+  <si>
+    <t>572105</t>
+  </si>
+  <si>
+    <t>Mon Dec 13 07:57:54 UTC 2021</t>
+  </si>
+  <si>
     <t>12086241</t>
   </si>
   <si>
@@ -611,6 +1046,39 @@
     <t>Wed Dec 08 10:58:40 UTC 2021</t>
   </si>
   <si>
+    <t>36627266</t>
+  </si>
+  <si>
+    <t>Partha Sarathi Bhunia</t>
+  </si>
+  <si>
+    <t>College of Engineering and Management,Kolaghat</t>
+  </si>
+  <si>
+    <t>181070110047</t>
+  </si>
+  <si>
+    <t>parthabhunia2001@gmail.com</t>
+  </si>
+  <si>
+    <t>8670062213</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/parthabhunia2001</t>
+  </si>
+  <si>
+    <t>Vill. - Joyrambati, P.O. - Kelomal, P.S.- Tamluk, Dist. - Purba Medinipur</t>
+  </si>
+  <si>
+    <t>Tamluk, West Bengal</t>
+  </si>
+  <si>
+    <t>721627</t>
+  </si>
+  <si>
+    <t>Sat Dec 04 18:26:29 UTC 2021</t>
+  </si>
+  <si>
     <t>6163215</t>
   </si>
   <si>
@@ -674,6 +1142,30 @@
     <t>Fri Dec 10 15:05:27 UTC 2021</t>
   </si>
   <si>
+    <t>40508766</t>
+  </si>
+  <si>
+    <t>MARUTHI R</t>
+  </si>
+  <si>
+    <t>1SI20AD009</t>
+  </si>
+  <si>
+    <t>maruthi.syn.ack@gmail.com</t>
+  </si>
+  <si>
+    <t>6362446653</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/maruthi_syn_ack</t>
+  </si>
+  <si>
+    <t>Near Gokul medicals, melekote</t>
+  </si>
+  <si>
+    <t>Mon Dec 13 07:51:24 UTC 2021</t>
+  </si>
+  <si>
     <t>17562411</t>
   </si>
   <si>
@@ -698,39 +1190,6 @@
     <t>Sat Dec 11 11:35:11 UTC 2021</t>
   </si>
   <si>
-    <t>84971134</t>
-  </si>
-  <si>
-    <t>Reddy Soha  Tabassum</t>
-  </si>
-  <si>
-    <t>Ashoka women's engineering College</t>
-  </si>
-  <si>
-    <t>07680076600</t>
-  </si>
-  <si>
-    <t>tabassumtarunnam@gmail.com</t>
-  </si>
-  <si>
-    <t>9390947376</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/auth/confirm_account?confirmation_token=xLSRTxM-obmvYJo83RvT</t>
-  </si>
-  <si>
-    <t>1-659,2nd road , Anantapur</t>
-  </si>
-  <si>
-    <t>Anantapur</t>
-  </si>
-  <si>
-    <t>515001</t>
-  </si>
-  <si>
-    <t>Sun Dec 12 17:35:59 UTC 2021</t>
-  </si>
-  <si>
     <t>25711033</t>
   </si>
   <si>
@@ -815,15 +1274,9 @@
     <t>Dhimanth  C</t>
   </si>
   <si>
-    <t xml:space="preserve">Siddaganga Institute of Technology </t>
-  </si>
-  <si>
     <t xml:space="preserve">1SI20CS033 </t>
   </si>
   <si>
-    <t xml:space="preserve">Computer science and engineering </t>
-  </si>
-  <si>
     <t>1SI20CS033@sit.ac.in</t>
   </si>
   <si>
@@ -890,6 +1343,33 @@
     <t>Sat Dec 11 08:38:13 UTC 2021</t>
   </si>
   <si>
+    <t>64381884</t>
+  </si>
+  <si>
+    <t>Aseer Uz Zaman</t>
+  </si>
+  <si>
+    <t>Acharya Institute of Technology</t>
+  </si>
+  <si>
+    <t>1AY18CS018</t>
+  </si>
+  <si>
+    <t>aseern.18.becs@acharya.ac.in</t>
+  </si>
+  <si>
+    <t>9591880944</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/aseer</t>
+  </si>
+  <si>
+    <t>#174, 6th main, 2nd block, R. T. Nagar</t>
+  </si>
+  <si>
+    <t>Sat Dec 11 14:25:33 UTC 2021</t>
+  </si>
+  <si>
     <t>54891007</t>
   </si>
   <si>
@@ -1004,39 +1484,6 @@
     <t>Sun Dec 05 05:48:40 UTC 2021</t>
   </si>
   <si>
-    <t>36627266</t>
-  </si>
-  <si>
-    <t>Partha Sarathi Bhunia</t>
-  </si>
-  <si>
-    <t>College of Engineering and Management,Kolaghat</t>
-  </si>
-  <si>
-    <t>181070110047</t>
-  </si>
-  <si>
-    <t>parthabhunia2001@gmail.com</t>
-  </si>
-  <si>
-    <t>8670062213</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/parthabhunia2001</t>
-  </si>
-  <si>
-    <t>Vill. - Joyrambati, P.O. - Kelomal, P.S.- Tamluk, Dist. - Purba Medinipur</t>
-  </si>
-  <si>
-    <t>Tamluk, West Bengal</t>
-  </si>
-  <si>
-    <t>721627</t>
-  </si>
-  <si>
-    <t>Sat Dec 04 18:26:29 UTC 2021</t>
-  </si>
-  <si>
     <t>78665168</t>
   </si>
   <si>
@@ -1094,6 +1541,30 @@
     <t>Tue Dec 07 14:32:32 UTC 2021</t>
   </si>
   <si>
+    <t>92232648</t>
+  </si>
+  <si>
+    <t>AMIYANSHU .</t>
+  </si>
+  <si>
+    <t>Siddhaganga institute of technology</t>
+  </si>
+  <si>
+    <t>1SI20IS002</t>
+  </si>
+  <si>
+    <t>1si20is002@sit.ac.in</t>
+  </si>
+  <si>
+    <t>7297976176</t>
+  </si>
+  <si>
+    <t>LBS HOSTEL</t>
+  </si>
+  <si>
+    <t>Mon Dec 13 08:09:49 UTC 2021</t>
+  </si>
+  <si>
     <t>19803744</t>
   </si>
   <si>
@@ -1127,6 +1598,33 @@
     <t>Sat Dec 04 18:00:20 UTC 2021</t>
   </si>
   <si>
+    <t>47499369</t>
+  </si>
+  <si>
+    <t>Jeevan  G</t>
+  </si>
+  <si>
+    <t>SIDDAGANGA INSTITUTE OF TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>1SI20IS016</t>
+  </si>
+  <si>
+    <t>jsgm.jeevan10@gmail.com</t>
+  </si>
+  <si>
+    <t>6361894696</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/jsgm_jeevan10</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Mon Dec 13 09:12:59 UTC 2021</t>
+  </si>
+  <si>
     <t>22560211</t>
   </si>
   <si>
@@ -1163,21 +1661,48 @@
     <t>Tue Dec 07 17:48:01 UTC 2021</t>
   </si>
   <si>
+    <t>36830541</t>
+  </si>
+  <si>
+    <t>Ganesh Saud</t>
+  </si>
+  <si>
+    <t>Cambridge Institute Of Technology</t>
+  </si>
+  <si>
+    <t>1CD19CS051</t>
+  </si>
+  <si>
+    <t>Computer Science and engineering</t>
+  </si>
+  <si>
+    <t>gsaud896@gmail.com</t>
+  </si>
+  <si>
+    <t>8975455730</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/gsaud896</t>
+  </si>
+  <si>
+    <t>Cambridge Institute of technology, Boys Hostel, KR puram</t>
+  </si>
+  <si>
+    <t>560002</t>
+  </si>
+  <si>
+    <t>Mon Dec 13 07:59:14 UTC 2021</t>
+  </si>
+  <si>
     <t>46119144</t>
   </si>
   <si>
     <t>S V  NANDEESH</t>
   </si>
   <si>
-    <t>SIDDAGANGA INSTITUTE OF TECHNOLOGY</t>
-  </si>
-  <si>
     <t>1SI20IS044</t>
   </si>
   <si>
-    <t>INFORMATION SCIENCE AND ENGINEERING</t>
-  </si>
-  <si>
     <t>nandeesh.samalada1@gmail.com</t>
   </si>
   <si>
@@ -1340,36 +1865,6 @@
     <t>Sat Dec 11 11:23:41 UTC 2021</t>
   </si>
   <si>
-    <t>64381884</t>
-  </si>
-  <si>
-    <t>Aseer Uz Zaman</t>
-  </si>
-  <si>
-    <t>Acharya Institute of Technology</t>
-  </si>
-  <si>
-    <t>1AY18CS018</t>
-  </si>
-  <si>
-    <t>aseern.18.becs@acharya.ac.in</t>
-  </si>
-  <si>
-    <t>9591880944</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/aseer</t>
-  </si>
-  <si>
-    <t>#174, 6th main, 2nd block, R. T. Nagar</t>
-  </si>
-  <si>
-    <t>560032</t>
-  </si>
-  <si>
-    <t>Sat Dec 11 14:25:33 UTC 2021</t>
-  </si>
-  <si>
     <t>30857140</t>
   </si>
   <si>
@@ -1394,6 +1889,36 @@
     <t>Wed Dec 08 04:50:38 UTC 2021</t>
   </si>
   <si>
+    <t>59438503</t>
+  </si>
+  <si>
+    <t>Prajwal C R</t>
+  </si>
+  <si>
+    <t>Rashtriya Vidyalaya college of engineering</t>
+  </si>
+  <si>
+    <t>2020069796</t>
+  </si>
+  <si>
+    <t>prajwalcr006@gmail.com</t>
+  </si>
+  <si>
+    <t>7676984545</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/prajwalcr006?hr_r=1</t>
+  </si>
+  <si>
+    <t>Kanva Nagar, Nelamangala.</t>
+  </si>
+  <si>
+    <t>562123</t>
+  </si>
+  <si>
+    <t>Mon Dec 13 05:49:11 UTC 2021</t>
+  </si>
+  <si>
     <t>93057098</t>
   </si>
   <si>
@@ -1454,6 +1979,66 @@
     <t>Tue Dec 07 13:41:35 UTC 2021</t>
   </si>
   <si>
+    <t>21688051</t>
+  </si>
+  <si>
+    <t>Gourav Banerjee</t>
+  </si>
+  <si>
+    <t>Cambridge Institute of Technology</t>
+  </si>
+  <si>
+    <t>1CD19CS055</t>
+  </si>
+  <si>
+    <t>Computer Science  Engineering</t>
+  </si>
+  <si>
+    <t>gourav.19cs055@cambridge.edu.in</t>
+  </si>
+  <si>
+    <t>9798504865</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/banerjeec713</t>
+  </si>
+  <si>
+    <t>K-1602, Salarpuria Sattva East Crest, Budigere Cross, Bengaluru 49</t>
+  </si>
+  <si>
+    <t>560049</t>
+  </si>
+  <si>
+    <t>Mon Dec 13 05:04:55 UTC 2021</t>
+  </si>
+  <si>
+    <t>77632972</t>
+  </si>
+  <si>
+    <t>Hema Naidu</t>
+  </si>
+  <si>
+    <t>4VV19CS057</t>
+  </si>
+  <si>
+    <t>hemanaidu331@gmail.com</t>
+  </si>
+  <si>
+    <t>7022247108</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/hemanaidu331</t>
+  </si>
+  <si>
+    <t>Girls hostel, Vidyavardhaka college of engineering, Mysore</t>
+  </si>
+  <si>
+    <t>570002</t>
+  </si>
+  <si>
+    <t>Mon Dec 13 06:00:03 UTC 2021</t>
+  </si>
+  <si>
     <t>37729518</t>
   </si>
   <si>
@@ -1667,42 +2252,6 @@
     <t>Sun Dec 12 15:35:27 UTC 2021</t>
   </si>
   <si>
-    <t>21688051</t>
-  </si>
-  <si>
-    <t>Gourav Banerjee</t>
-  </si>
-  <si>
-    <t>Cambridge Institute of Technology</t>
-  </si>
-  <si>
-    <t>1CD19CS055</t>
-  </si>
-  <si>
-    <t>Computer Science  Engineering</t>
-  </si>
-  <si>
-    <t>gourav.19cs055@cambridge.edu.in</t>
-  </si>
-  <si>
-    <t>9798504865</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/banerjeec713</t>
-  </si>
-  <si>
-    <t>K-1602, Salarpuria Sattva East Crest, Budigere Cross, Bengaluru 49</t>
-  </si>
-  <si>
-    <t>Bengaluru</t>
-  </si>
-  <si>
-    <t>560049</t>
-  </si>
-  <si>
-    <t>Mon Dec 13 05:04:55 UTC 2021</t>
-  </si>
-  <si>
     <t>76760320</t>
   </si>
   <si>
@@ -1733,91 +2282,52 @@
     <t>Sat Dec 11 11:53:39 UTC 2021</t>
   </si>
   <si>
-    <t>16271371</t>
-  </si>
-  <si>
-    <t>Priyank Singh</t>
-  </si>
-  <si>
-    <t>R V College of Engineering</t>
-  </si>
-  <si>
-    <t>1RV18CS122</t>
-  </si>
-  <si>
-    <t>priyankkumars.cs18@rvce.edu.in</t>
-  </si>
-  <si>
-    <t>9380685435</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/priyankkumars_c1</t>
-  </si>
-  <si>
-    <t>R V college of engineering</t>
-  </si>
-  <si>
-    <t>Sun Dec 12 07:16:04 UTC 2021</t>
-  </si>
-  <si>
-    <t>32644615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anant Vikram  Singh Rathore </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R.V. College of engineering </t>
-  </si>
-  <si>
-    <t>1RV20CS020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computer science &amp; engineering </t>
-  </si>
-  <si>
-    <t>anantvikramsr.cs20@rvce.edu.in</t>
-  </si>
-  <si>
-    <t>6376079521</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/anantvsr001</t>
-  </si>
-  <si>
-    <t>Ss pg, pattanagere main road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bengaluru </t>
-  </si>
-  <si>
-    <t>Sun Dec 12 03:06:35 UTC 2021</t>
-  </si>
-  <si>
-    <t>44776940</t>
-  </si>
-  <si>
-    <t>Maya S Rao</t>
-  </si>
-  <si>
-    <t>1RV20CS083</t>
-  </si>
-  <si>
-    <t>Computer Science</t>
-  </si>
-  <si>
-    <t>mayasrao25@gmail.com</t>
-  </si>
-  <si>
-    <t>7829808808</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/mayasrao25</t>
-  </si>
-  <si>
-    <t>B312 , Cauvery Hostel , R V College Of Engineering , Mysore Rd, RV Vidyaniketan, Post, Bengaluru, Karnataka 560059</t>
-  </si>
-  <si>
-    <t>Sat Dec 11 19:35:42 UTC 2021</t>
+    <t>21098266</t>
+  </si>
+  <si>
+    <t>Firos  K</t>
+  </si>
+  <si>
+    <t>1CD20CS046</t>
+  </si>
+  <si>
+    <t>firosk7@gmail.com</t>
+  </si>
+  <si>
+    <t>8078807814</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/firosk7</t>
+  </si>
+  <si>
+    <t>RASA VILLA, THEKKEPURAM</t>
+  </si>
+  <si>
+    <t>Mon Dec 13 12:03:35 UTC 2021</t>
+  </si>
+  <si>
+    <t>86355768</t>
+  </si>
+  <si>
+    <t>Harshit Tibrewal</t>
+  </si>
+  <si>
+    <t>1CD20CS056</t>
+  </si>
+  <si>
+    <t>harshittibrewal11@gmail.com</t>
+  </si>
+  <si>
+    <t>7001368116</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/harshittibrewal1</t>
+  </si>
+  <si>
+    <t>7th Cross Road,Jai Bhuvaneshwari Layout</t>
+  </si>
+  <si>
+    <t>Mon Dec 13 11:25:18 UTC 2021</t>
   </si>
 </sst>
 </file>
@@ -1862,7 +2372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1964,66 +2474,66 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
         <v>48</v>
@@ -2087,7 +2597,7 @@
         <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -2102,24 +2612,24 @@
         <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="M6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>75</v>
@@ -2128,69 +2638,69 @@
         <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
         <v>77</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>78</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>79</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>80</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" t="s">
         <v>81</v>
-      </c>
-      <c r="K7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
         <v>85</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
         <v>86</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G8" t="s">
         <v>87</v>
       </c>
-      <c r="D8" t="s">
+      <c r="H8" t="s">
         <v>88</v>
       </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>89</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>90</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>91</v>
       </c>
-      <c r="J8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>92</v>
-      </c>
-      <c r="L8" t="s">
-        <v>61</v>
       </c>
       <c r="M8" t="s">
         <v>93</v>
@@ -2204,34 +2714,34 @@
         <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="M9" t="s">
         <v>103</v>
@@ -2251,7 +2761,7 @@
         <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
         <v>108</v>
@@ -2269,1445 +2779,1445 @@
         <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="M10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="M11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H12" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="M13" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H14" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="M14" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" t="s">
+        <v>165</v>
+      </c>
+      <c r="I15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" t="s">
         <v>156</v>
       </c>
-      <c r="E15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" t="s">
-        <v>159</v>
-      </c>
-      <c r="I15" t="s">
-        <v>160</v>
-      </c>
-      <c r="J15" t="s">
-        <v>161</v>
-      </c>
-      <c r="K15" t="s">
-        <v>47</v>
-      </c>
       <c r="L15" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E16" t="s">
         <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G16" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="H16" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="I16" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E17" t="s">
         <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H17" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="J17" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="M17" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="D18" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E18" t="s">
         <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="G18" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="H18" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="K18" t="s">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="E19" t="s">
         <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="G19" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="H19" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="K19" t="s">
-        <v>60</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="D20" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="G20" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="H20" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="I20" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="J20" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="L20" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="M20" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C21" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="D21" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="H21" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="I21" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="J21" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="K21" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="L21" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="M21" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="D22" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="G22" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="H22" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="I22" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="J22" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="K22" t="s">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="M22" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C23" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="H23" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="I23" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="J23" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="K23" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="L23" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="M23" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>254</v>
       </c>
       <c r="D24" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>256</v>
       </c>
       <c r="G24" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="H24" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="I24" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="J24" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="K24" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="L24" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="M24" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>263</v>
       </c>
       <c r="D25" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="H25" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="I25" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="J25" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="K25" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="L25" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="M25" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="C26" t="s">
-        <v>257</v>
+        <v>161</v>
       </c>
       <c r="D26" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>118</v>
+        <v>274</v>
       </c>
       <c r="G26" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H26" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="I26" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="J26" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="K26" t="s">
-        <v>263</v>
+        <v>156</v>
       </c>
       <c r="L26" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="M26" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C27" t="s">
-        <v>267</v>
+        <v>172</v>
       </c>
       <c r="D27" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="G27" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="H27" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="I27" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="J27" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="K27" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="L27" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="M27" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B28" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>127</v>
+        <v>292</v>
       </c>
       <c r="G28" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="H28" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="I28" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="J28" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="K28" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="L28" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="M28" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="B29" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="D29" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>301</v>
       </c>
       <c r="G29" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="H29" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="I29" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="J29" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="K29" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L29" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="M29" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B30" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="C30" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="D30" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>97</v>
+        <v>301</v>
       </c>
       <c r="G30" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="H30" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="I30" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="J30" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="K30" t="s">
-        <v>218</v>
+        <v>35</v>
       </c>
       <c r="L30" t="s">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="M30" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="B31" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>318</v>
       </c>
       <c r="D31" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>320</v>
       </c>
       <c r="G31" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="H31" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="I31" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="J31" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="K31" t="s">
-        <v>308</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="M31" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="B32" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="G32" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="H32" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="I32" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="J32" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="K32" t="s">
-        <v>318</v>
+        <v>156</v>
       </c>
       <c r="L32" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="M32" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B33" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="C33" t="s">
-        <v>323</v>
+        <v>233</v>
       </c>
       <c r="D33" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>97</v>
+        <v>338</v>
       </c>
       <c r="G33" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="H33" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="I33" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="J33" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="K33" t="s">
-        <v>328</v>
+        <v>179</v>
       </c>
       <c r="L33" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="M33" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="B34" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="C34" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="D34" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>224</v>
       </c>
       <c r="G34" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="H34" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="I34" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="J34" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="K34" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="L34" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="M34" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="B35" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="E35" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="G35" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="H35" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="I35" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="J35" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="K35" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="L35" t="s">
-        <v>71</v>
+        <v>363</v>
       </c>
       <c r="M35" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="B36" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="C36" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="D36" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="G36" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="H36" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="I36" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="J36" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="K36" t="s">
-        <v>92</v>
+        <v>374</v>
       </c>
       <c r="L36" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="M36" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="B37" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="C37" t="s">
-        <v>362</v>
+        <v>161</v>
       </c>
       <c r="D37" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="E37" t="s">
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>175</v>
+        <v>358</v>
       </c>
       <c r="G37" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="H37" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="I37" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="J37" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="K37" t="s">
-        <v>368</v>
+        <v>156</v>
       </c>
       <c r="L37" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="M37" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="B38" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C38" t="s">
-        <v>373</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="E38" t="s">
         <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="G38" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="H38" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="I38" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="J38" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="K38" t="s">
-        <v>380</v>
+        <v>35</v>
       </c>
       <c r="L38" t="s">
-        <v>381</v>
+        <v>157</v>
       </c>
       <c r="M38" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B39" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="C39" t="s">
-        <v>385</v>
+        <v>233</v>
       </c>
       <c r="D39" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="E39" t="s">
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>387</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="H39" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="I39" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="J39" t="s">
-        <v>391</v>
+        <v>198</v>
       </c>
       <c r="K39" t="s">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c r="L39" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="M39" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B40" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="E40" t="s">
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="G40" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H40" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="I40" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="J40" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="K40" t="s">
-        <v>92</v>
+        <v>406</v>
       </c>
       <c r="L40" t="s">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="M40" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B41" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C41" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="D41" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="E41" t="s">
         <v>17</v>
       </c>
       <c r="F41" t="s">
+        <v>256</v>
+      </c>
+      <c r="G41" t="s">
+        <v>412</v>
+      </c>
+      <c r="H41" t="s">
+        <v>413</v>
+      </c>
+      <c r="I41" t="s">
+        <v>414</v>
+      </c>
+      <c r="J41" t="s">
+        <v>415</v>
+      </c>
+      <c r="K41" t="s">
+        <v>416</v>
+      </c>
+      <c r="L41" t="s">
         <v>157</v>
       </c>
-      <c r="G41" t="s">
-        <v>405</v>
-      </c>
-      <c r="H41" t="s">
-        <v>406</v>
-      </c>
-      <c r="I41" t="s">
-        <v>407</v>
-      </c>
-      <c r="J41" t="s">
-        <v>408</v>
-      </c>
-      <c r="K41" t="s">
-        <v>409</v>
-      </c>
-      <c r="L41" t="s">
-        <v>410</v>
-      </c>
       <c r="M41" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B42" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>318</v>
       </c>
       <c r="D42" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="E42" t="s">
         <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="H42" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="I42" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="J42" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="K42" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="L42" t="s">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="M42" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B43" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C43" t="s">
-        <v>422</v>
+        <v>161</v>
       </c>
       <c r="D43" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>313</v>
+        <v>130</v>
       </c>
       <c r="G43" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="H43" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="I43" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="J43" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K43" t="s">
-        <v>428</v>
+        <v>156</v>
       </c>
       <c r="L43" t="s">
-        <v>429</v>
+        <v>157</v>
       </c>
       <c r="M43" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B44" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C44" t="s">
-        <v>432</v>
+        <v>161</v>
       </c>
       <c r="D44" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>434</v>
+        <v>224</v>
       </c>
       <c r="G44" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H44" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="I44" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="J44" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K44" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L44" t="s">
-        <v>440</v>
+        <v>168</v>
       </c>
       <c r="M44" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B45" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C45" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D45" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F45" t="s">
-        <v>97</v>
+        <v>224</v>
       </c>
       <c r="G45" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H45" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I45" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J45" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K45" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="L45" t="s">
-        <v>450</v>
+        <v>61</v>
       </c>
       <c r="M45" t="s">
         <v>451</v>
@@ -3721,16 +4231,16 @@
         <v>453</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="D46" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E46" t="s">
         <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>455</v>
+        <v>224</v>
       </c>
       <c r="G46" t="s">
         <v>456</v>
@@ -3742,200 +4252,200 @@
         <v>458</v>
       </c>
       <c r="J46" t="s">
-        <v>317</v>
+        <v>459</v>
       </c>
       <c r="K46" t="s">
-        <v>47</v>
+        <v>374</v>
       </c>
       <c r="L46" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="M46" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B47" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C47" t="s">
-        <v>462</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
         <v>463</v>
       </c>
       <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
         <v>30</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>464</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>465</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>466</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>467</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>468</v>
       </c>
-      <c r="K47" t="s">
-        <v>92</v>
-      </c>
       <c r="L47" t="s">
+        <v>180</v>
+      </c>
+      <c r="M47" t="s">
         <v>469</v>
-      </c>
-      <c r="M47" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>470</v>
+      </c>
+      <c r="B48" t="s">
         <v>471</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" t="s">
         <v>472</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s">
         <v>473</v>
       </c>
-      <c r="D48" t="s">
+      <c r="G48" t="s">
         <v>474</v>
       </c>
-      <c r="E48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" t="s">
-        <v>97</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>475</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>476</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>477</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>478</v>
       </c>
-      <c r="K48" t="s">
-        <v>92</v>
-      </c>
       <c r="L48" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="M48" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B49" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C49" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D49" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>97</v>
+        <v>224</v>
       </c>
       <c r="G49" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H49" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I49" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J49" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K49" t="s">
         <v>488</v>
       </c>
       <c r="L49" t="s">
+        <v>168</v>
+      </c>
+      <c r="M49" t="s">
         <v>489</v>
-      </c>
-      <c r="M49" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>490</v>
+      </c>
+      <c r="B50" t="s">
         <v>491</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" t="s">
         <v>492</v>
-      </c>
-      <c r="C50" t="s">
-        <v>493</v>
-      </c>
-      <c r="D50" t="s">
-        <v>494</v>
       </c>
       <c r="E50" t="s">
         <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>97</v>
+        <v>493</v>
       </c>
       <c r="G50" t="s">
+        <v>494</v>
+      </c>
+      <c r="H50" t="s">
         <v>495</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>496</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>497</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
+        <v>156</v>
+      </c>
+      <c r="L50" t="s">
+        <v>168</v>
+      </c>
+      <c r="M50" t="s">
         <v>498</v>
-      </c>
-      <c r="K50" t="s">
-        <v>92</v>
-      </c>
-      <c r="L50" t="s">
-        <v>499</v>
-      </c>
-      <c r="M50" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>499</v>
+      </c>
+      <c r="B51" t="s">
+        <v>500</v>
+      </c>
+      <c r="C51" t="s">
         <v>501</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>502</v>
-      </c>
-      <c r="C51" t="s">
-        <v>482</v>
-      </c>
-      <c r="D51" t="s">
-        <v>503</v>
       </c>
       <c r="E51" t="s">
         <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>97</v>
+        <v>503</v>
       </c>
       <c r="G51" t="s">
         <v>504</v>
@@ -3950,382 +4460,1120 @@
         <v>507</v>
       </c>
       <c r="K51" t="s">
+        <v>35</v>
+      </c>
+      <c r="L51" t="s">
+        <v>168</v>
+      </c>
+      <c r="M51" t="s">
         <v>508</v>
-      </c>
-      <c r="L51" t="s">
-        <v>509</v>
-      </c>
-      <c r="M51" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>509</v>
+      </c>
+      <c r="B52" t="s">
+        <v>510</v>
+      </c>
+      <c r="C52" t="s">
         <v>511</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
         <v>512</v>
-      </c>
-      <c r="C52" t="s">
-        <v>513</v>
-      </c>
-      <c r="D52" t="s">
-        <v>514</v>
       </c>
       <c r="E52" t="s">
         <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>283</v>
       </c>
       <c r="G52" t="s">
+        <v>513</v>
+      </c>
+      <c r="H52" t="s">
+        <v>514</v>
+      </c>
+      <c r="I52" t="s">
+        <v>267</v>
+      </c>
+      <c r="J52" t="s">
         <v>515</v>
       </c>
-      <c r="H52" t="s">
+      <c r="K52" t="s">
+        <v>156</v>
+      </c>
+      <c r="L52" t="s">
+        <v>180</v>
+      </c>
+      <c r="M52" t="s">
         <v>516</v>
-      </c>
-      <c r="I52" t="s">
-        <v>517</v>
-      </c>
-      <c r="J52" t="s">
-        <v>518</v>
-      </c>
-      <c r="K52" t="s">
-        <v>519</v>
-      </c>
-      <c r="L52" t="s">
-        <v>520</v>
-      </c>
-      <c r="M52" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B53" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C53" t="s">
-        <v>482</v>
+        <v>519</v>
       </c>
       <c r="D53" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E53" t="s">
         <v>17</v>
       </c>
       <c r="F53" t="s">
-        <v>97</v>
+        <v>301</v>
       </c>
       <c r="G53" t="s">
+        <v>521</v>
+      </c>
+      <c r="H53" t="s">
+        <v>522</v>
+      </c>
+      <c r="I53" t="s">
+        <v>523</v>
+      </c>
+      <c r="J53" t="s">
+        <v>524</v>
+      </c>
+      <c r="K53" t="s">
         <v>525</v>
       </c>
-      <c r="H53" t="s">
+      <c r="L53" t="s">
         <v>526</v>
       </c>
-      <c r="I53" t="s">
+      <c r="M53" t="s">
         <v>527</v>
-      </c>
-      <c r="J53" t="s">
-        <v>528</v>
-      </c>
-      <c r="K53" t="s">
-        <v>508</v>
-      </c>
-      <c r="L53" t="s">
-        <v>529</v>
-      </c>
-      <c r="M53" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>528</v>
+      </c>
+      <c r="B54" t="s">
+        <v>529</v>
+      </c>
+      <c r="C54" t="s">
+        <v>530</v>
+      </c>
+      <c r="D54" t="s">
         <v>531</v>
       </c>
-      <c r="B54" t="s">
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" t="s">
+        <v>119</v>
+      </c>
+      <c r="G54" t="s">
         <v>532</v>
       </c>
-      <c r="C54" t="s">
+      <c r="H54" t="s">
         <v>533</v>
       </c>
-      <c r="D54" t="s">
+      <c r="I54" t="s">
         <v>534</v>
       </c>
-      <c r="E54" t="s">
-        <v>54</v>
-      </c>
-      <c r="F54" t="s">
-        <v>42</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="J54" t="s">
         <v>535</v>
       </c>
-      <c r="H54" t="s">
+      <c r="K54" t="s">
+        <v>535</v>
+      </c>
+      <c r="L54" t="s">
+        <v>535</v>
+      </c>
+      <c r="M54" t="s">
         <v>536</v>
-      </c>
-      <c r="I54" t="s">
-        <v>537</v>
-      </c>
-      <c r="J54" t="s">
-        <v>508</v>
-      </c>
-      <c r="K54" t="s">
-        <v>508</v>
-      </c>
-      <c r="L54" t="s">
-        <v>538</v>
-      </c>
-      <c r="M54" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>537</v>
+      </c>
+      <c r="B55" t="s">
+        <v>538</v>
+      </c>
+      <c r="C55" t="s">
+        <v>539</v>
+      </c>
+      <c r="D55" t="s">
         <v>540</v>
-      </c>
-      <c r="B55" t="s">
-        <v>541</v>
-      </c>
-      <c r="C55" t="s">
-        <v>542</v>
-      </c>
-      <c r="D55" t="s">
-        <v>543</v>
       </c>
       <c r="E55" t="s">
         <v>17</v>
       </c>
       <c r="F55" t="s">
+        <v>541</v>
+      </c>
+      <c r="G55" t="s">
+        <v>542</v>
+      </c>
+      <c r="H55" t="s">
+        <v>543</v>
+      </c>
+      <c r="I55" t="s">
         <v>544</v>
       </c>
-      <c r="G55" t="s">
+      <c r="J55" t="s">
         <v>545</v>
       </c>
-      <c r="H55" t="s">
+      <c r="K55" t="s">
         <v>546</v>
       </c>
-      <c r="I55" t="s">
+      <c r="L55" t="s">
         <v>547</v>
       </c>
-      <c r="J55" t="s">
+      <c r="M55" t="s">
         <v>548</v>
-      </c>
-      <c r="K55" t="s">
-        <v>132</v>
-      </c>
-      <c r="L55" t="s">
-        <v>549</v>
-      </c>
-      <c r="M55" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>549</v>
+      </c>
+      <c r="B56" t="s">
+        <v>550</v>
+      </c>
+      <c r="C56" t="s">
         <v>551</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
         <v>552</v>
-      </c>
-      <c r="C56" t="s">
-        <v>553</v>
-      </c>
-      <c r="D56" t="s">
-        <v>554</v>
       </c>
       <c r="E56" t="s">
         <v>54</v>
       </c>
       <c r="F56" t="s">
+        <v>553</v>
+      </c>
+      <c r="G56" t="s">
+        <v>554</v>
+      </c>
+      <c r="H56" t="s">
         <v>555</v>
       </c>
-      <c r="G56" t="s">
+      <c r="I56" t="s">
         <v>556</v>
       </c>
-      <c r="H56" t="s">
+      <c r="J56" t="s">
         <v>557</v>
       </c>
-      <c r="I56" t="s">
+      <c r="K56" t="s">
+        <v>113</v>
+      </c>
+      <c r="L56" t="s">
         <v>558</v>
       </c>
-      <c r="J56" t="s">
+      <c r="M56" t="s">
         <v>559</v>
-      </c>
-      <c r="K56" t="s">
-        <v>560</v>
-      </c>
-      <c r="L56" t="s">
-        <v>561</v>
-      </c>
-      <c r="M56" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B57" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C57" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="D57" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E57" t="s">
         <v>17</v>
       </c>
       <c r="F57" t="s">
+        <v>119</v>
+      </c>
+      <c r="G57" t="s">
+        <v>563</v>
+      </c>
+      <c r="H57" t="s">
         <v>564</v>
       </c>
-      <c r="G57" t="s">
+      <c r="I57" t="s">
+        <v>565</v>
+      </c>
+      <c r="J57" t="s">
+        <v>566</v>
+      </c>
+      <c r="K57" t="s">
+        <v>156</v>
+      </c>
+      <c r="L57" t="s">
+        <v>168</v>
+      </c>
+      <c r="M57" t="s">
         <v>567</v>
-      </c>
-      <c r="H57" t="s">
-        <v>568</v>
-      </c>
-      <c r="I57" t="s">
-        <v>569</v>
-      </c>
-      <c r="J57" t="s">
-        <v>570</v>
-      </c>
-      <c r="K57" t="s">
-        <v>23</v>
-      </c>
-      <c r="L57" t="s">
-        <v>571</v>
-      </c>
-      <c r="M57" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>568</v>
+      </c>
+      <c r="B58" t="s">
+        <v>569</v>
+      </c>
+      <c r="C58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" t="s">
+        <v>570</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" t="s">
+        <v>301</v>
+      </c>
+      <c r="G58" t="s">
+        <v>571</v>
+      </c>
+      <c r="H58" t="s">
+        <v>572</v>
+      </c>
+      <c r="I58" t="s">
         <v>573</v>
       </c>
-      <c r="B58" t="s">
+      <c r="J58" t="s">
         <v>574</v>
       </c>
-      <c r="C58" t="s">
+      <c r="K58" t="s">
+        <v>35</v>
+      </c>
+      <c r="L58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M58" t="s">
         <v>575</v>
-      </c>
-      <c r="D58" t="s">
-        <v>576</v>
-      </c>
-      <c r="E58" t="s">
-        <v>30</v>
-      </c>
-      <c r="F58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" t="s">
-        <v>577</v>
-      </c>
-      <c r="H58" t="s">
-        <v>578</v>
-      </c>
-      <c r="I58" t="s">
-        <v>579</v>
-      </c>
-      <c r="J58" t="s">
-        <v>580</v>
-      </c>
-      <c r="K58" t="s">
-        <v>560</v>
-      </c>
-      <c r="L58" t="s">
-        <v>24</v>
-      </c>
-      <c r="M58" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B59" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C59" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D59" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="E59" t="s">
         <v>17</v>
       </c>
       <c r="F59" t="s">
+        <v>283</v>
+      </c>
+      <c r="G59" t="s">
+        <v>580</v>
+      </c>
+      <c r="H59" t="s">
+        <v>581</v>
+      </c>
+      <c r="I59" t="s">
+        <v>582</v>
+      </c>
+      <c r="J59" t="s">
+        <v>583</v>
+      </c>
+      <c r="K59" t="s">
+        <v>584</v>
+      </c>
+      <c r="L59" t="s">
+        <v>585</v>
+      </c>
+      <c r="M59" t="s">
         <v>586</v>
-      </c>
-      <c r="G59" t="s">
-        <v>587</v>
-      </c>
-      <c r="H59" t="s">
-        <v>588</v>
-      </c>
-      <c r="I59" t="s">
-        <v>589</v>
-      </c>
-      <c r="J59" t="s">
-        <v>590</v>
-      </c>
-      <c r="K59" t="s">
-        <v>591</v>
-      </c>
-      <c r="L59" t="s">
-        <v>24</v>
-      </c>
-      <c r="M59" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B60" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C60" t="s">
-        <v>594</v>
+        <v>161</v>
       </c>
       <c r="D60" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E60" t="s">
         <v>17</v>
       </c>
       <c r="F60" t="s">
+        <v>301</v>
+      </c>
+      <c r="G60" t="s">
+        <v>590</v>
+      </c>
+      <c r="H60" t="s">
+        <v>591</v>
+      </c>
+      <c r="I60" t="s">
+        <v>592</v>
+      </c>
+      <c r="J60" t="s">
+        <v>593</v>
+      </c>
+      <c r="K60" t="s">
+        <v>35</v>
+      </c>
+      <c r="L60" t="s">
+        <v>168</v>
+      </c>
+      <c r="M60" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>595</v>
+      </c>
+      <c r="B61" t="s">
         <v>596</v>
       </c>
-      <c r="G60" t="s">
+      <c r="C61" t="s">
         <v>597</v>
       </c>
-      <c r="H60" t="s">
+      <c r="D61" t="s">
         <v>598</v>
       </c>
-      <c r="I60" t="s">
+      <c r="E61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F61" t="s">
+        <v>473</v>
+      </c>
+      <c r="G61" t="s">
         <v>599</v>
       </c>
-      <c r="J60" t="s">
+      <c r="H61" t="s">
         <v>600</v>
       </c>
-      <c r="K60" t="s">
-        <v>92</v>
-      </c>
-      <c r="L60" t="s">
+      <c r="I61" t="s">
+        <v>601</v>
+      </c>
+      <c r="J61" t="s">
+        <v>602</v>
+      </c>
+      <c r="K61" t="s">
+        <v>603</v>
+      </c>
+      <c r="L61" t="s">
+        <v>604</v>
+      </c>
+      <c r="M61" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>606</v>
+      </c>
+      <c r="B62" t="s">
+        <v>607</v>
+      </c>
+      <c r="C62" t="s">
+        <v>607</v>
+      </c>
+      <c r="D62" t="s">
+        <v>608</v>
+      </c>
+      <c r="E62" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" t="s">
+        <v>609</v>
+      </c>
+      <c r="G62" t="s">
+        <v>610</v>
+      </c>
+      <c r="H62" t="s">
+        <v>611</v>
+      </c>
+      <c r="I62" t="s">
+        <v>612</v>
+      </c>
+      <c r="J62" t="s">
+        <v>613</v>
+      </c>
+      <c r="K62" t="s">
+        <v>614</v>
+      </c>
+      <c r="L62" t="s">
+        <v>615</v>
+      </c>
+      <c r="M62" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>617</v>
+      </c>
+      <c r="B63" t="s">
+        <v>618</v>
+      </c>
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" t="s">
+        <v>619</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" t="s">
+        <v>620</v>
+      </c>
+      <c r="G63" t="s">
+        <v>621</v>
+      </c>
+      <c r="H63" t="s">
+        <v>622</v>
+      </c>
+      <c r="I63" t="s">
+        <v>623</v>
+      </c>
+      <c r="J63" t="s">
+        <v>477</v>
+      </c>
+      <c r="K63" t="s">
+        <v>156</v>
+      </c>
+      <c r="L63" t="s">
+        <v>168</v>
+      </c>
+      <c r="M63" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>625</v>
+      </c>
+      <c r="B64" t="s">
+        <v>626</v>
+      </c>
+      <c r="C64" t="s">
+        <v>627</v>
+      </c>
+      <c r="D64" t="s">
+        <v>628</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" t="s">
+        <v>256</v>
+      </c>
+      <c r="G64" t="s">
+        <v>629</v>
+      </c>
+      <c r="H64" t="s">
+        <v>630</v>
+      </c>
+      <c r="I64" t="s">
+        <v>631</v>
+      </c>
+      <c r="J64" t="s">
+        <v>632</v>
+      </c>
+      <c r="K64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L64" t="s">
+        <v>633</v>
+      </c>
+      <c r="M64" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>635</v>
+      </c>
+      <c r="B65" t="s">
+        <v>636</v>
+      </c>
+      <c r="C65" t="s">
+        <v>637</v>
+      </c>
+      <c r="D65" t="s">
+        <v>638</v>
+      </c>
+      <c r="E65" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65" t="s">
+        <v>639</v>
+      </c>
+      <c r="G65" t="s">
+        <v>640</v>
+      </c>
+      <c r="H65" t="s">
+        <v>641</v>
+      </c>
+      <c r="I65" t="s">
+        <v>642</v>
+      </c>
+      <c r="J65" t="s">
+        <v>643</v>
+      </c>
+      <c r="K65" t="s">
+        <v>35</v>
+      </c>
+      <c r="L65" t="s">
+        <v>644</v>
+      </c>
+      <c r="M65" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>646</v>
+      </c>
+      <c r="B66" t="s">
+        <v>647</v>
+      </c>
+      <c r="C66" t="s">
+        <v>648</v>
+      </c>
+      <c r="D66" t="s">
+        <v>649</v>
+      </c>
+      <c r="E66" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66" t="s">
+        <v>224</v>
+      </c>
+      <c r="G66" t="s">
+        <v>650</v>
+      </c>
+      <c r="H66" t="s">
+        <v>651</v>
+      </c>
+      <c r="I66" t="s">
+        <v>652</v>
+      </c>
+      <c r="J66" t="s">
+        <v>653</v>
+      </c>
+      <c r="K66" t="s">
+        <v>35</v>
+      </c>
+      <c r="L66" t="s">
+        <v>644</v>
+      </c>
+      <c r="M66" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>655</v>
+      </c>
+      <c r="B67" t="s">
+        <v>656</v>
+      </c>
+      <c r="C67" t="s">
+        <v>657</v>
+      </c>
+      <c r="D67" t="s">
+        <v>658</v>
+      </c>
+      <c r="E67" t="s">
+        <v>54</v>
+      </c>
+      <c r="F67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G67" t="s">
+        <v>660</v>
+      </c>
+      <c r="H67" t="s">
+        <v>661</v>
+      </c>
+      <c r="I67" t="s">
+        <v>662</v>
+      </c>
+      <c r="J67" t="s">
+        <v>663</v>
+      </c>
+      <c r="K67" t="s">
+        <v>23</v>
+      </c>
+      <c r="L67" t="s">
+        <v>664</v>
+      </c>
+      <c r="M67" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>666</v>
+      </c>
+      <c r="B68" t="s">
+        <v>667</v>
+      </c>
+      <c r="C68" t="s">
+        <v>667</v>
+      </c>
+      <c r="D68" t="s">
+        <v>668</v>
+      </c>
+      <c r="E68" t="s">
+        <v>54</v>
+      </c>
+      <c r="F68" t="s">
+        <v>174</v>
+      </c>
+      <c r="G68" t="s">
+        <v>669</v>
+      </c>
+      <c r="H68" t="s">
+        <v>670</v>
+      </c>
+      <c r="I68" t="s">
+        <v>671</v>
+      </c>
+      <c r="J68" t="s">
+        <v>672</v>
+      </c>
+      <c r="K68" t="s">
+        <v>135</v>
+      </c>
+      <c r="L68" t="s">
+        <v>673</v>
+      </c>
+      <c r="M68" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>675</v>
+      </c>
+      <c r="B69" t="s">
+        <v>676</v>
+      </c>
+      <c r="C69" t="s">
+        <v>677</v>
+      </c>
+      <c r="D69" t="s">
+        <v>678</v>
+      </c>
+      <c r="E69" t="s">
+        <v>54</v>
+      </c>
+      <c r="F69" t="s">
+        <v>224</v>
+      </c>
+      <c r="G69" t="s">
+        <v>679</v>
+      </c>
+      <c r="H69" t="s">
+        <v>680</v>
+      </c>
+      <c r="I69" t="s">
+        <v>681</v>
+      </c>
+      <c r="J69" t="s">
+        <v>682</v>
+      </c>
+      <c r="K69" t="s">
+        <v>683</v>
+      </c>
+      <c r="L69" t="s">
+        <v>684</v>
+      </c>
+      <c r="M69" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>686</v>
+      </c>
+      <c r="B70" t="s">
+        <v>687</v>
+      </c>
+      <c r="C70" t="s">
+        <v>688</v>
+      </c>
+      <c r="D70" t="s">
+        <v>689</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" t="s">
+        <v>224</v>
+      </c>
+      <c r="G70" t="s">
+        <v>690</v>
+      </c>
+      <c r="H70" t="s">
+        <v>691</v>
+      </c>
+      <c r="I70" t="s">
+        <v>692</v>
+      </c>
+      <c r="J70" t="s">
+        <v>693</v>
+      </c>
+      <c r="K70" t="s">
+        <v>35</v>
+      </c>
+      <c r="L70" t="s">
+        <v>694</v>
+      </c>
+      <c r="M70" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>696</v>
+      </c>
+      <c r="B71" t="s">
+        <v>697</v>
+      </c>
+      <c r="C71" t="s">
+        <v>677</v>
+      </c>
+      <c r="D71" t="s">
+        <v>698</v>
+      </c>
+      <c r="E71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" t="s">
+        <v>224</v>
+      </c>
+      <c r="G71" t="s">
+        <v>699</v>
+      </c>
+      <c r="H71" t="s">
+        <v>700</v>
+      </c>
+      <c r="I71" t="s">
+        <v>701</v>
+      </c>
+      <c r="J71" t="s">
+        <v>702</v>
+      </c>
+      <c r="K71" t="s">
+        <v>703</v>
+      </c>
+      <c r="L71" t="s">
+        <v>704</v>
+      </c>
+      <c r="M71" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>706</v>
+      </c>
+      <c r="B72" t="s">
+        <v>707</v>
+      </c>
+      <c r="C72" t="s">
+        <v>708</v>
+      </c>
+      <c r="D72" t="s">
+        <v>709</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" t="s">
+        <v>710</v>
+      </c>
+      <c r="H72" t="s">
+        <v>711</v>
+      </c>
+      <c r="I72" t="s">
+        <v>712</v>
+      </c>
+      <c r="J72" t="s">
+        <v>713</v>
+      </c>
+      <c r="K72" t="s">
+        <v>714</v>
+      </c>
+      <c r="L72" t="s">
+        <v>715</v>
+      </c>
+      <c r="M72" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>717</v>
+      </c>
+      <c r="B73" t="s">
+        <v>718</v>
+      </c>
+      <c r="C73" t="s">
+        <v>677</v>
+      </c>
+      <c r="D73" t="s">
+        <v>719</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" t="s">
+        <v>224</v>
+      </c>
+      <c r="G73" t="s">
+        <v>720</v>
+      </c>
+      <c r="H73" t="s">
+        <v>721</v>
+      </c>
+      <c r="I73" t="s">
+        <v>722</v>
+      </c>
+      <c r="J73" t="s">
+        <v>723</v>
+      </c>
+      <c r="K73" t="s">
+        <v>703</v>
+      </c>
+      <c r="L73" t="s">
+        <v>724</v>
+      </c>
+      <c r="M73" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>726</v>
+      </c>
+      <c r="B74" t="s">
+        <v>727</v>
+      </c>
+      <c r="C74" t="s">
+        <v>728</v>
+      </c>
+      <c r="D74" t="s">
+        <v>729</v>
+      </c>
+      <c r="E74" t="s">
+        <v>54</v>
+      </c>
+      <c r="F74" t="s">
+        <v>98</v>
+      </c>
+      <c r="G74" t="s">
+        <v>730</v>
+      </c>
+      <c r="H74" t="s">
+        <v>731</v>
+      </c>
+      <c r="I74" t="s">
+        <v>732</v>
+      </c>
+      <c r="J74" t="s">
+        <v>703</v>
+      </c>
+      <c r="K74" t="s">
+        <v>703</v>
+      </c>
+      <c r="L74" t="s">
+        <v>733</v>
+      </c>
+      <c r="M74" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>735</v>
+      </c>
+      <c r="B75" t="s">
+        <v>736</v>
+      </c>
+      <c r="C75" t="s">
+        <v>737</v>
+      </c>
+      <c r="D75" t="s">
+        <v>738</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" t="s">
+        <v>739</v>
+      </c>
+      <c r="G75" t="s">
+        <v>740</v>
+      </c>
+      <c r="H75" t="s">
+        <v>741</v>
+      </c>
+      <c r="I75" t="s">
+        <v>742</v>
+      </c>
+      <c r="J75" t="s">
+        <v>743</v>
+      </c>
+      <c r="K75" t="s">
+        <v>135</v>
+      </c>
+      <c r="L75" t="s">
+        <v>744</v>
+      </c>
+      <c r="M75" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>746</v>
+      </c>
+      <c r="B76" t="s">
+        <v>747</v>
+      </c>
+      <c r="C76" t="s">
+        <v>748</v>
+      </c>
+      <c r="D76" t="s">
+        <v>749</v>
+      </c>
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" t="s">
+        <v>747</v>
+      </c>
+      <c r="G76" t="s">
+        <v>750</v>
+      </c>
+      <c r="H76" t="s">
+        <v>751</v>
+      </c>
+      <c r="I76" t="s">
+        <v>752</v>
+      </c>
+      <c r="J76" t="s">
+        <v>753</v>
+      </c>
+      <c r="K76" t="s">
+        <v>113</v>
+      </c>
+      <c r="L76" t="s">
+        <v>754</v>
+      </c>
+      <c r="M76" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>756</v>
+      </c>
+      <c r="B77" t="s">
+        <v>757</v>
+      </c>
+      <c r="C77" t="s">
+        <v>657</v>
+      </c>
+      <c r="D77" t="s">
+        <v>758</v>
+      </c>
+      <c r="E77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s">
+        <v>759</v>
+      </c>
+      <c r="H77" t="s">
+        <v>760</v>
+      </c>
+      <c r="I77" t="s">
+        <v>761</v>
+      </c>
+      <c r="J77" t="s">
+        <v>762</v>
+      </c>
+      <c r="K77" t="s">
+        <v>113</v>
+      </c>
+      <c r="L77" t="s">
         <v>24</v>
       </c>
-      <c r="M60" t="s">
-        <v>601</v>
+      <c r="M77" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>764</v>
+      </c>
+      <c r="B78" t="s">
+        <v>765</v>
+      </c>
+      <c r="C78" t="s">
+        <v>657</v>
+      </c>
+      <c r="D78" t="s">
+        <v>766</v>
+      </c>
+      <c r="E78" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" t="s">
+        <v>765</v>
+      </c>
+      <c r="G78" t="s">
+        <v>767</v>
+      </c>
+      <c r="H78" t="s">
+        <v>768</v>
+      </c>
+      <c r="I78" t="s">
+        <v>769</v>
+      </c>
+      <c r="J78" t="s">
+        <v>770</v>
+      </c>
+      <c r="K78" t="s">
+        <v>35</v>
+      </c>
+      <c r="L78" t="s">
+        <v>24</v>
+      </c>
+      <c r="M78" t="s">
+        <v>771</v>
       </c>
     </row>
   </sheetData>
